--- a/corpus_dev/RO-STS_14000-16000.xlsx
+++ b/corpus_dev/RO-STS_14000-16000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1887">
   <si>
     <t>#</t>
   </si>
@@ -3604,6 +3604,9 @@
     <t>Two dogs playing in the snow.</t>
   </si>
   <si>
+    <t>Doi câini jucându-se în zăpadă.</t>
+  </si>
+  <si>
     <t>Three people sit at a picnic table outside of a building painted like a union jack.</t>
   </si>
   <si>
@@ -3826,6 +3829,9 @@
     <t>A black dog running through water.</t>
   </si>
   <si>
+    <t>Un câine negru alergând prin apă.</t>
+  </si>
+  <si>
     <t>a man and woman walking past a record shop</t>
   </si>
   <si>
@@ -4211,6 +4217,9 @@
   </si>
   <si>
     <t>Four dogs playing in the snow.</t>
+  </si>
+  <si>
+    <t>Patru câini jucându-se în zăpadă.</t>
   </si>
   <si>
     <t>Brown and black dogs on snow, showing teeth and barking at each other.</t>
@@ -17531,14 +17540,16 @@
       <c r="C1271" s="6" t="s">
         <v>1195</v>
       </c>
-      <c r="D1271" s="7"/>
+      <c r="D1271" s="7" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="1272" spans="1:4" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A1272" s="2">
         <v>15270</v>
       </c>
       <c r="C1272" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D1272" s="4"/>
     </row>
@@ -17547,7 +17558,7 @@
         <v>15271</v>
       </c>
       <c r="C1273" s="6" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D1273" s="7"/>
     </row>
@@ -17556,7 +17567,7 @@
         <v>15272</v>
       </c>
       <c r="C1274" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D1274" s="4"/>
     </row>
@@ -17565,7 +17576,7 @@
         <v>15273</v>
       </c>
       <c r="C1275" s="6" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D1275" s="7"/>
     </row>
@@ -17574,7 +17585,7 @@
         <v>15274</v>
       </c>
       <c r="C1276" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D1276" s="4"/>
     </row>
@@ -17583,7 +17594,7 @@
         <v>15275</v>
       </c>
       <c r="C1277" s="6" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D1277" s="7"/>
     </row>
@@ -17592,7 +17603,7 @@
         <v>15276</v>
       </c>
       <c r="C1278" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D1278" s="4"/>
     </row>
@@ -17601,7 +17612,7 @@
         <v>15277</v>
       </c>
       <c r="C1279" s="6" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D1279" s="7"/>
     </row>
@@ -17610,7 +17621,7 @@
         <v>15278</v>
       </c>
       <c r="C1280" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D1280" s="4"/>
     </row>
@@ -17619,7 +17630,7 @@
         <v>15279</v>
       </c>
       <c r="C1281" s="6" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D1281" s="7"/>
     </row>
@@ -17628,7 +17639,7 @@
         <v>15280</v>
       </c>
       <c r="C1282" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D1282" s="4"/>
     </row>
@@ -17637,7 +17648,7 @@
         <v>15281</v>
       </c>
       <c r="C1283" s="6" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D1283" s="7"/>
     </row>
@@ -17646,7 +17657,7 @@
         <v>15282</v>
       </c>
       <c r="C1284" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D1284" s="4"/>
     </row>
@@ -17655,7 +17666,7 @@
         <v>15283</v>
       </c>
       <c r="C1285" s="6" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D1285" s="7"/>
     </row>
@@ -17664,7 +17675,7 @@
         <v>15284</v>
       </c>
       <c r="C1286" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D1286" s="4"/>
     </row>
@@ -17673,7 +17684,7 @@
         <v>15285</v>
       </c>
       <c r="C1287" s="6" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D1287" s="7"/>
     </row>
@@ -17682,7 +17693,7 @@
         <v>15286</v>
       </c>
       <c r="C1288" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D1288" s="4"/>
     </row>
@@ -17691,7 +17702,7 @@
         <v>15287</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D1289" s="7"/>
     </row>
@@ -17700,7 +17711,7 @@
         <v>15288</v>
       </c>
       <c r="C1290" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D1290" s="4"/>
     </row>
@@ -17709,7 +17720,7 @@
         <v>15289</v>
       </c>
       <c r="C1291" s="6" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D1291" s="7"/>
     </row>
@@ -17718,7 +17729,7 @@
         <v>15290</v>
       </c>
       <c r="C1292" s="3" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D1292" s="4"/>
     </row>
@@ -17727,7 +17738,7 @@
         <v>15291</v>
       </c>
       <c r="C1293" s="6" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D1293" s="7"/>
     </row>
@@ -17736,7 +17747,7 @@
         <v>15292</v>
       </c>
       <c r="C1294" s="3" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D1294" s="4"/>
     </row>
@@ -17745,7 +17756,7 @@
         <v>15293</v>
       </c>
       <c r="C1295" s="6" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D1295" s="7"/>
     </row>
@@ -17754,7 +17765,7 @@
         <v>15294</v>
       </c>
       <c r="C1296" s="3" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D1296" s="4"/>
     </row>
@@ -17763,7 +17774,7 @@
         <v>15295</v>
       </c>
       <c r="C1297" s="6" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D1297" s="7"/>
     </row>
@@ -17772,7 +17783,7 @@
         <v>15296</v>
       </c>
       <c r="C1298" s="3" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D1298" s="4"/>
     </row>
@@ -17781,7 +17792,7 @@
         <v>15297</v>
       </c>
       <c r="C1299" s="6" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D1299" s="7"/>
     </row>
@@ -17790,7 +17801,7 @@
         <v>15298</v>
       </c>
       <c r="C1300" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D1300" s="4"/>
     </row>
@@ -17799,7 +17810,7 @@
         <v>15299</v>
       </c>
       <c r="C1301" s="6" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D1301" s="7"/>
     </row>
@@ -17808,7 +17819,7 @@
         <v>15300</v>
       </c>
       <c r="C1302" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D1302" s="4"/>
     </row>
@@ -17817,7 +17828,7 @@
         <v>15301</v>
       </c>
       <c r="C1303" s="6" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D1303" s="7"/>
     </row>
@@ -17826,7 +17837,7 @@
         <v>15302</v>
       </c>
       <c r="C1304" s="3" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D1304" s="4"/>
     </row>
@@ -17835,7 +17846,7 @@
         <v>15303</v>
       </c>
       <c r="C1305" s="6" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D1305" s="7"/>
     </row>
@@ -17844,7 +17855,7 @@
         <v>15304</v>
       </c>
       <c r="C1306" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D1306" s="4"/>
     </row>
@@ -17853,7 +17864,7 @@
         <v>15305</v>
       </c>
       <c r="C1307" s="6" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D1307" s="7"/>
     </row>
@@ -17862,7 +17873,7 @@
         <v>15306</v>
       </c>
       <c r="C1308" s="3" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D1308" s="4"/>
     </row>
@@ -17871,7 +17882,7 @@
         <v>15307</v>
       </c>
       <c r="C1309" s="6" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D1309" s="7"/>
     </row>
@@ -17880,7 +17891,7 @@
         <v>15308</v>
       </c>
       <c r="C1310" s="3" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D1310" s="4"/>
     </row>
@@ -17889,7 +17900,7 @@
         <v>15309</v>
       </c>
       <c r="C1311" s="6" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D1311" s="7"/>
     </row>
@@ -17898,7 +17909,7 @@
         <v>15310</v>
       </c>
       <c r="C1312" s="3" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D1312" s="4"/>
     </row>
@@ -17907,7 +17918,7 @@
         <v>15311</v>
       </c>
       <c r="C1313" s="6" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D1313" s="7"/>
     </row>
@@ -17916,7 +17927,7 @@
         <v>15312</v>
       </c>
       <c r="C1314" s="3" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D1314" s="4"/>
     </row>
@@ -17925,7 +17936,7 @@
         <v>15313</v>
       </c>
       <c r="C1315" s="6" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D1315" s="7"/>
     </row>
@@ -17934,7 +17945,7 @@
         <v>15314</v>
       </c>
       <c r="C1316" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D1316" s="4"/>
     </row>
@@ -17943,7 +17954,7 @@
         <v>15315</v>
       </c>
       <c r="C1317" s="6" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D1317" s="7"/>
     </row>
@@ -17952,7 +17963,7 @@
         <v>15316</v>
       </c>
       <c r="C1318" s="3" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D1318" s="4"/>
     </row>
@@ -17961,7 +17972,7 @@
         <v>15317</v>
       </c>
       <c r="C1319" s="6" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D1319" s="7"/>
     </row>
@@ -17970,7 +17981,7 @@
         <v>15318</v>
       </c>
       <c r="C1320" s="3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D1320" s="4"/>
     </row>
@@ -17979,7 +17990,7 @@
         <v>15319</v>
       </c>
       <c r="C1321" s="6" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D1321" s="7"/>
     </row>
@@ -17988,7 +17999,7 @@
         <v>15320</v>
       </c>
       <c r="C1322" s="3" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D1322" s="4"/>
     </row>
@@ -17997,7 +18008,7 @@
         <v>15321</v>
       </c>
       <c r="C1323" s="6" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D1323" s="7"/>
     </row>
@@ -18006,7 +18017,7 @@
         <v>15322</v>
       </c>
       <c r="C1324" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D1324" s="4"/>
     </row>
@@ -18015,7 +18026,7 @@
         <v>15323</v>
       </c>
       <c r="C1325" s="6" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D1325" s="7"/>
     </row>
@@ -18024,7 +18035,7 @@
         <v>15324</v>
       </c>
       <c r="C1326" s="3" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D1326" s="4"/>
     </row>
@@ -18033,7 +18044,7 @@
         <v>15325</v>
       </c>
       <c r="C1327" s="6" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D1327" s="7"/>
     </row>
@@ -18042,7 +18053,7 @@
         <v>15326</v>
       </c>
       <c r="C1328" s="3" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D1328" s="4"/>
     </row>
@@ -18051,7 +18062,7 @@
         <v>15327</v>
       </c>
       <c r="C1329" s="6" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D1329" s="7"/>
     </row>
@@ -18060,7 +18071,7 @@
         <v>15328</v>
       </c>
       <c r="C1330" s="3" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D1330" s="4"/>
     </row>
@@ -18069,7 +18080,7 @@
         <v>15329</v>
       </c>
       <c r="C1331" s="6" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D1331" s="7"/>
     </row>
@@ -18078,7 +18089,7 @@
         <v>15330</v>
       </c>
       <c r="C1332" s="3" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D1332" s="4"/>
     </row>
@@ -18087,7 +18098,7 @@
         <v>15331</v>
       </c>
       <c r="C1333" s="6" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D1333" s="7"/>
     </row>
@@ -18096,7 +18107,7 @@
         <v>15332</v>
       </c>
       <c r="C1334" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D1334" s="4"/>
     </row>
@@ -18105,7 +18116,7 @@
         <v>15333</v>
       </c>
       <c r="C1335" s="6" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D1335" s="7"/>
     </row>
@@ -18114,7 +18125,7 @@
         <v>15334</v>
       </c>
       <c r="C1336" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D1336" s="4"/>
     </row>
@@ -18123,7 +18134,7 @@
         <v>15335</v>
       </c>
       <c r="C1337" s="6" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D1337" s="7"/>
     </row>
@@ -18132,7 +18143,7 @@
         <v>15336</v>
       </c>
       <c r="C1338" s="3" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D1338" s="4"/>
     </row>
@@ -18141,7 +18152,7 @@
         <v>15337</v>
       </c>
       <c r="C1339" s="6" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D1339" s="7"/>
     </row>
@@ -18150,7 +18161,7 @@
         <v>15338</v>
       </c>
       <c r="C1340" s="3" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D1340" s="4"/>
     </row>
@@ -18159,7 +18170,7 @@
         <v>15339</v>
       </c>
       <c r="C1341" s="6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D1341" s="7"/>
     </row>
@@ -18168,7 +18179,7 @@
         <v>15340</v>
       </c>
       <c r="C1342" s="3" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D1342" s="4"/>
     </row>
@@ -18177,7 +18188,7 @@
         <v>15341</v>
       </c>
       <c r="C1343" s="6" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D1343" s="7"/>
     </row>
@@ -18186,7 +18197,7 @@
         <v>15342</v>
       </c>
       <c r="C1344" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D1344" s="4"/>
     </row>
@@ -18195,16 +18206,18 @@
         <v>15343</v>
       </c>
       <c r="C1345" s="6" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D1345" s="7"/>
+        <v>1270</v>
+      </c>
+      <c r="D1345" s="7" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="1346" spans="1:4" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A1346" s="2">
         <v>15344</v>
       </c>
       <c r="C1346" s="3" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="D1346" s="4"/>
     </row>
@@ -18213,7 +18226,7 @@
         <v>15345</v>
       </c>
       <c r="C1347" s="6" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D1347" s="7"/>
     </row>
@@ -18231,7 +18244,7 @@
         <v>15347</v>
       </c>
       <c r="C1349" s="6" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D1349" s="7"/>
     </row>
@@ -18240,7 +18253,7 @@
         <v>15348</v>
       </c>
       <c r="C1350" s="3" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D1350" s="4"/>
     </row>
@@ -18249,7 +18262,7 @@
         <v>15349</v>
       </c>
       <c r="C1351" s="6" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D1351" s="7"/>
     </row>
@@ -18258,7 +18271,7 @@
         <v>15350</v>
       </c>
       <c r="C1352" s="3" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D1352" s="4"/>
     </row>
@@ -18267,7 +18280,7 @@
         <v>15351</v>
       </c>
       <c r="C1353" s="6" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D1353" s="7"/>
     </row>
@@ -18276,7 +18289,7 @@
         <v>15352</v>
       </c>
       <c r="C1354" s="3" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D1354" s="4"/>
     </row>
@@ -18285,7 +18298,7 @@
         <v>15353</v>
       </c>
       <c r="C1355" s="6" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D1355" s="7"/>
     </row>
@@ -18294,7 +18307,7 @@
         <v>15354</v>
       </c>
       <c r="C1356" s="3" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D1356" s="4"/>
     </row>
@@ -18303,7 +18316,7 @@
         <v>15355</v>
       </c>
       <c r="C1357" s="6" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D1357" s="7"/>
     </row>
@@ -18312,7 +18325,7 @@
         <v>15356</v>
       </c>
       <c r="C1358" s="3" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D1358" s="4"/>
     </row>
@@ -18321,7 +18334,7 @@
         <v>15357</v>
       </c>
       <c r="C1359" s="6" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="D1359" s="7"/>
     </row>
@@ -18330,7 +18343,7 @@
         <v>15358</v>
       </c>
       <c r="C1360" s="3" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D1360" s="4"/>
     </row>
@@ -18339,7 +18352,7 @@
         <v>15359</v>
       </c>
       <c r="C1361" s="6" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D1361" s="7"/>
     </row>
@@ -18348,7 +18361,7 @@
         <v>15360</v>
       </c>
       <c r="C1362" s="3" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D1362" s="4"/>
     </row>
@@ -18357,7 +18370,7 @@
         <v>15361</v>
       </c>
       <c r="C1363" s="6" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D1363" s="7"/>
     </row>
@@ -18366,7 +18379,7 @@
         <v>15362</v>
       </c>
       <c r="C1364" s="3" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="D1364" s="4"/>
     </row>
@@ -18375,7 +18388,7 @@
         <v>15363</v>
       </c>
       <c r="C1365" s="6" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D1365" s="7"/>
     </row>
@@ -18384,7 +18397,7 @@
         <v>15364</v>
       </c>
       <c r="C1366" s="3" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D1366" s="4"/>
     </row>
@@ -18393,7 +18406,7 @@
         <v>15365</v>
       </c>
       <c r="C1367" s="6" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D1367" s="7"/>
     </row>
@@ -18402,7 +18415,7 @@
         <v>15366</v>
       </c>
       <c r="C1368" s="3" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D1368" s="4"/>
     </row>
@@ -18411,7 +18424,7 @@
         <v>15367</v>
       </c>
       <c r="C1369" s="6" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D1369" s="7"/>
     </row>
@@ -18420,7 +18433,7 @@
         <v>15368</v>
       </c>
       <c r="C1370" s="3" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="D1370" s="4"/>
     </row>
@@ -18429,7 +18442,7 @@
         <v>15369</v>
       </c>
       <c r="C1371" s="6" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D1371" s="7"/>
     </row>
@@ -18438,7 +18451,7 @@
         <v>15370</v>
       </c>
       <c r="C1372" s="3" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D1372" s="4"/>
     </row>
@@ -18447,7 +18460,7 @@
         <v>15371</v>
       </c>
       <c r="C1373" s="6" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D1373" s="7"/>
     </row>
@@ -18456,7 +18469,7 @@
         <v>15372</v>
       </c>
       <c r="C1374" s="3" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D1374" s="4"/>
     </row>
@@ -18465,7 +18478,7 @@
         <v>15373</v>
       </c>
       <c r="C1375" s="6" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="D1375" s="7"/>
     </row>
@@ -18474,7 +18487,7 @@
         <v>15374</v>
       </c>
       <c r="C1376" s="3" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D1376" s="4"/>
     </row>
@@ -18483,7 +18496,7 @@
         <v>15375</v>
       </c>
       <c r="C1377" s="6" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D1377" s="7"/>
     </row>
@@ -18492,7 +18505,7 @@
         <v>15376</v>
       </c>
       <c r="C1378" s="3" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D1378" s="4"/>
     </row>
@@ -18501,7 +18514,7 @@
         <v>15377</v>
       </c>
       <c r="C1379" s="6" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="D1379" s="7"/>
     </row>
@@ -18510,7 +18523,7 @@
         <v>15378</v>
       </c>
       <c r="C1380" s="3" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D1380" s="4"/>
     </row>
@@ -18519,7 +18532,7 @@
         <v>15379</v>
       </c>
       <c r="C1381" s="6" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D1381" s="7"/>
     </row>
@@ -18528,7 +18541,7 @@
         <v>15380</v>
       </c>
       <c r="C1382" s="3" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D1382" s="4"/>
     </row>
@@ -18537,7 +18550,7 @@
         <v>15381</v>
       </c>
       <c r="C1383" s="6" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D1383" s="7"/>
     </row>
@@ -18546,7 +18559,7 @@
         <v>15382</v>
       </c>
       <c r="C1384" s="3" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="D1384" s="4"/>
     </row>
@@ -18555,7 +18568,7 @@
         <v>15383</v>
       </c>
       <c r="C1385" s="6" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D1385" s="7"/>
     </row>
@@ -18564,7 +18577,7 @@
         <v>15384</v>
       </c>
       <c r="C1386" s="3" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D1386" s="4"/>
     </row>
@@ -18573,7 +18586,7 @@
         <v>15385</v>
       </c>
       <c r="C1387" s="6" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D1387" s="7"/>
     </row>
@@ -18582,7 +18595,7 @@
         <v>15386</v>
       </c>
       <c r="C1388" s="3" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D1388" s="4"/>
     </row>
@@ -18591,7 +18604,7 @@
         <v>15387</v>
       </c>
       <c r="C1389" s="6" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D1389" s="7"/>
     </row>
@@ -18600,7 +18613,7 @@
         <v>15388</v>
       </c>
       <c r="C1390" s="3" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D1390" s="4"/>
     </row>
@@ -18609,7 +18622,7 @@
         <v>15389</v>
       </c>
       <c r="C1391" s="6" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="D1391" s="7"/>
     </row>
@@ -18618,7 +18631,7 @@
         <v>15390</v>
       </c>
       <c r="C1392" s="3" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D1392" s="4"/>
     </row>
@@ -18627,7 +18640,7 @@
         <v>15391</v>
       </c>
       <c r="C1393" s="6" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D1393" s="7"/>
     </row>
@@ -18636,7 +18649,7 @@
         <v>15392</v>
       </c>
       <c r="C1394" s="3" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D1394" s="4"/>
     </row>
@@ -18645,7 +18658,7 @@
         <v>15393</v>
       </c>
       <c r="C1395" s="6" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D1395" s="7"/>
     </row>
@@ -18654,7 +18667,7 @@
         <v>15394</v>
       </c>
       <c r="C1396" s="3" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D1396" s="4"/>
     </row>
@@ -18663,7 +18676,7 @@
         <v>15395</v>
       </c>
       <c r="C1397" s="6" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D1397" s="7"/>
     </row>
@@ -18672,7 +18685,7 @@
         <v>15396</v>
       </c>
       <c r="C1398" s="3" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D1398" s="4"/>
     </row>
@@ -18681,7 +18694,7 @@
         <v>15397</v>
       </c>
       <c r="C1399" s="6" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D1399" s="7"/>
     </row>
@@ -18690,7 +18703,7 @@
         <v>15398</v>
       </c>
       <c r="C1400" s="3" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D1400" s="4"/>
     </row>
@@ -18699,7 +18712,7 @@
         <v>15399</v>
       </c>
       <c r="C1401" s="6" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D1401" s="7"/>
     </row>
@@ -18708,7 +18721,7 @@
         <v>15400</v>
       </c>
       <c r="C1402" s="3" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="D1402" s="4"/>
     </row>
@@ -18717,7 +18730,7 @@
         <v>15401</v>
       </c>
       <c r="C1403" s="6" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D1403" s="7"/>
     </row>
@@ -18726,7 +18739,7 @@
         <v>15402</v>
       </c>
       <c r="C1404" s="3" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D1404" s="4"/>
     </row>
@@ -18735,7 +18748,7 @@
         <v>15403</v>
       </c>
       <c r="C1405" s="6" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D1405" s="7"/>
     </row>
@@ -18744,7 +18757,7 @@
         <v>15404</v>
       </c>
       <c r="C1406" s="3" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D1406" s="4"/>
     </row>
@@ -18753,7 +18766,7 @@
         <v>15405</v>
       </c>
       <c r="C1407" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="D1407" s="7"/>
     </row>
@@ -18762,7 +18775,7 @@
         <v>15406</v>
       </c>
       <c r="C1408" s="3" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D1408" s="4"/>
     </row>
@@ -18771,7 +18784,7 @@
         <v>15407</v>
       </c>
       <c r="C1409" s="6" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D1409" s="7"/>
     </row>
@@ -18780,7 +18793,7 @@
         <v>15408</v>
       </c>
       <c r="C1410" s="3" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="D1410" s="4"/>
     </row>
@@ -18789,7 +18802,7 @@
         <v>15409</v>
       </c>
       <c r="C1411" s="6" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D1411" s="7"/>
     </row>
@@ -18798,7 +18811,7 @@
         <v>15410</v>
       </c>
       <c r="C1412" s="3" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D1412" s="4"/>
     </row>
@@ -18807,7 +18820,7 @@
         <v>15411</v>
       </c>
       <c r="C1413" s="6" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D1413" s="7"/>
     </row>
@@ -18816,7 +18829,7 @@
         <v>15412</v>
       </c>
       <c r="C1414" s="3" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="D1414" s="4"/>
     </row>
@@ -18825,7 +18838,7 @@
         <v>15413</v>
       </c>
       <c r="C1415" s="6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D1415" s="7"/>
     </row>
@@ -18834,7 +18847,7 @@
         <v>15414</v>
       </c>
       <c r="C1416" s="3" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D1416" s="4"/>
     </row>
@@ -18843,7 +18856,7 @@
         <v>15415</v>
       </c>
       <c r="C1417" s="6" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D1417" s="7"/>
     </row>
@@ -18852,7 +18865,7 @@
         <v>15416</v>
       </c>
       <c r="C1418" s="3" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="D1418" s="4"/>
     </row>
@@ -18861,7 +18874,7 @@
         <v>15417</v>
       </c>
       <c r="C1419" s="6" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D1419" s="7"/>
     </row>
@@ -18870,7 +18883,7 @@
         <v>15418</v>
       </c>
       <c r="C1420" s="3" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D1420" s="4"/>
     </row>
@@ -18879,7 +18892,7 @@
         <v>15419</v>
       </c>
       <c r="C1421" s="6" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="D1421" s="7"/>
     </row>
@@ -18888,7 +18901,7 @@
         <v>15420</v>
       </c>
       <c r="C1422" s="3" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D1422" s="4"/>
     </row>
@@ -18897,7 +18910,7 @@
         <v>15421</v>
       </c>
       <c r="C1423" s="6" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D1423" s="7"/>
     </row>
@@ -18906,7 +18919,7 @@
         <v>15422</v>
       </c>
       <c r="C1424" s="3" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D1424" s="4"/>
     </row>
@@ -18915,7 +18928,7 @@
         <v>15423</v>
       </c>
       <c r="C1425" s="6" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="D1425" s="7"/>
     </row>
@@ -18924,7 +18937,7 @@
         <v>15424</v>
       </c>
       <c r="C1426" s="3" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D1426" s="4"/>
     </row>
@@ -18933,7 +18946,7 @@
         <v>15425</v>
       </c>
       <c r="C1427" s="6" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D1427" s="7"/>
     </row>
@@ -18942,7 +18955,7 @@
         <v>15426</v>
       </c>
       <c r="C1428" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="D1428" s="4"/>
     </row>
@@ -18951,7 +18964,7 @@
         <v>15427</v>
       </c>
       <c r="C1429" s="6" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D1429" s="7"/>
     </row>
@@ -18960,7 +18973,7 @@
         <v>15428</v>
       </c>
       <c r="C1430" s="3" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D1430" s="4"/>
     </row>
@@ -18969,7 +18982,7 @@
         <v>15429</v>
       </c>
       <c r="C1431" s="6" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D1431" s="7"/>
     </row>
@@ -18978,7 +18991,7 @@
         <v>15430</v>
       </c>
       <c r="C1432" s="3" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="D1432" s="4"/>
     </row>
@@ -18987,7 +19000,7 @@
         <v>15431</v>
       </c>
       <c r="C1433" s="6" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="D1433" s="7"/>
     </row>
@@ -18996,7 +19009,7 @@
         <v>15432</v>
       </c>
       <c r="C1434" s="3" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D1434" s="4"/>
     </row>
@@ -19005,7 +19018,7 @@
         <v>15433</v>
       </c>
       <c r="C1435" s="6" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D1435" s="7"/>
     </row>
@@ -19014,7 +19027,7 @@
         <v>15434</v>
       </c>
       <c r="C1436" s="3" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D1436" s="4"/>
     </row>
@@ -19023,7 +19036,7 @@
         <v>15435</v>
       </c>
       <c r="C1437" s="6" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D1437" s="7"/>
     </row>
@@ -19032,7 +19045,7 @@
         <v>15436</v>
       </c>
       <c r="C1438" s="3" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D1438" s="4"/>
     </row>
@@ -19041,7 +19054,7 @@
         <v>15437</v>
       </c>
       <c r="C1439" s="6" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D1439" s="7"/>
     </row>
@@ -19050,7 +19063,7 @@
         <v>15438</v>
       </c>
       <c r="C1440" s="3" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="D1440" s="4"/>
     </row>
@@ -19059,7 +19072,7 @@
         <v>15439</v>
       </c>
       <c r="C1441" s="6" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D1441" s="7"/>
     </row>
@@ -19068,7 +19081,7 @@
         <v>15440</v>
       </c>
       <c r="C1442" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D1442" s="4"/>
     </row>
@@ -19077,7 +19090,7 @@
         <v>15441</v>
       </c>
       <c r="C1443" s="6" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D1443" s="7"/>
     </row>
@@ -19086,7 +19099,7 @@
         <v>15442</v>
       </c>
       <c r="C1444" s="3" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="D1444" s="4"/>
     </row>
@@ -19095,7 +19108,7 @@
         <v>15443</v>
       </c>
       <c r="C1445" s="6" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="D1445" s="7"/>
     </row>
@@ -19104,7 +19117,7 @@
         <v>15444</v>
       </c>
       <c r="C1446" s="3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D1446" s="4"/>
     </row>
@@ -19113,7 +19126,7 @@
         <v>15445</v>
       </c>
       <c r="C1447" s="6" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="D1447" s="7"/>
     </row>
@@ -19122,7 +19135,7 @@
         <v>15446</v>
       </c>
       <c r="C1448" s="3" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D1448" s="4"/>
     </row>
@@ -19131,7 +19144,7 @@
         <v>15447</v>
       </c>
       <c r="C1449" s="6" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D1449" s="7"/>
     </row>
@@ -19140,7 +19153,7 @@
         <v>15448</v>
       </c>
       <c r="C1450" s="3" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D1450" s="4"/>
     </row>
@@ -19149,7 +19162,7 @@
         <v>15449</v>
       </c>
       <c r="C1451" s="6" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D1451" s="7"/>
     </row>
@@ -19158,7 +19171,7 @@
         <v>15450</v>
       </c>
       <c r="C1452" s="3" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="D1452" s="4"/>
     </row>
@@ -19167,7 +19180,7 @@
         <v>15451</v>
       </c>
       <c r="C1453" s="6" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D1453" s="7"/>
     </row>
@@ -19176,7 +19189,7 @@
         <v>15452</v>
       </c>
       <c r="C1454" s="3" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="D1454" s="4"/>
     </row>
@@ -19185,7 +19198,7 @@
         <v>15453</v>
       </c>
       <c r="C1455" s="6" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="D1455" s="7"/>
     </row>
@@ -19194,7 +19207,7 @@
         <v>15454</v>
       </c>
       <c r="C1456" s="3" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D1456" s="4"/>
     </row>
@@ -19203,7 +19216,7 @@
         <v>15455</v>
       </c>
       <c r="C1457" s="6" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D1457" s="7"/>
     </row>
@@ -19212,7 +19225,7 @@
         <v>15456</v>
       </c>
       <c r="C1458" s="3" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="D1458" s="4"/>
     </row>
@@ -19221,7 +19234,7 @@
         <v>15457</v>
       </c>
       <c r="C1459" s="6" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D1459" s="7"/>
     </row>
@@ -19230,7 +19243,7 @@
         <v>15458</v>
       </c>
       <c r="C1460" s="3" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D1460" s="4"/>
     </row>
@@ -19239,7 +19252,7 @@
         <v>15459</v>
       </c>
       <c r="C1461" s="6" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D1461" s="7"/>
     </row>
@@ -19248,7 +19261,7 @@
         <v>15460</v>
       </c>
       <c r="C1462" s="3" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="D1462" s="4"/>
     </row>
@@ -19257,7 +19270,7 @@
         <v>15461</v>
       </c>
       <c r="C1463" s="6" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="D1463" s="7"/>
     </row>
@@ -19266,7 +19279,7 @@
         <v>15462</v>
       </c>
       <c r="C1464" s="3" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D1464" s="4"/>
     </row>
@@ -19275,7 +19288,7 @@
         <v>15463</v>
       </c>
       <c r="C1465" s="6" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D1465" s="7"/>
     </row>
@@ -19284,7 +19297,7 @@
         <v>15464</v>
       </c>
       <c r="C1466" s="3" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="D1466" s="4"/>
     </row>
@@ -19293,7 +19306,7 @@
         <v>15465</v>
       </c>
       <c r="C1467" s="6" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D1467" s="7"/>
     </row>
@@ -19302,7 +19315,7 @@
         <v>15466</v>
       </c>
       <c r="C1468" s="3" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="D1468" s="4"/>
     </row>
@@ -19311,7 +19324,7 @@
         <v>15467</v>
       </c>
       <c r="C1469" s="6" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D1469" s="7"/>
     </row>
@@ -19320,7 +19333,7 @@
         <v>15468</v>
       </c>
       <c r="C1470" s="3" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D1470" s="4"/>
     </row>
@@ -19329,7 +19342,7 @@
         <v>15469</v>
       </c>
       <c r="C1471" s="6" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="D1471" s="7"/>
     </row>
@@ -19338,7 +19351,7 @@
         <v>15470</v>
       </c>
       <c r="C1472" s="3" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D1472" s="4"/>
     </row>
@@ -19347,7 +19360,7 @@
         <v>15471</v>
       </c>
       <c r="C1473" s="6" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D1473" s="7"/>
     </row>
@@ -19356,7 +19369,7 @@
         <v>15472</v>
       </c>
       <c r="C1474" s="3" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D1474" s="4"/>
     </row>
@@ -19365,16 +19378,18 @@
         <v>15473</v>
       </c>
       <c r="C1475" s="6" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D1475" s="7"/>
+        <v>1400</v>
+      </c>
+      <c r="D1475" s="7" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="1476" spans="1:4" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A1476" s="2">
         <v>15474</v>
       </c>
       <c r="C1476" s="3" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D1476" s="4"/>
     </row>
@@ -19383,7 +19398,7 @@
         <v>15475</v>
       </c>
       <c r="C1477" s="6" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="D1477" s="7"/>
     </row>
@@ -19392,7 +19407,7 @@
         <v>15476</v>
       </c>
       <c r="C1478" s="3" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="D1478" s="4"/>
     </row>
@@ -19401,7 +19416,7 @@
         <v>15477</v>
       </c>
       <c r="C1479" s="6" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="D1479" s="7"/>
     </row>
@@ -19410,7 +19425,7 @@
         <v>15478</v>
       </c>
       <c r="C1480" s="3" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D1480" s="4"/>
     </row>
@@ -19419,7 +19434,7 @@
         <v>15479</v>
       </c>
       <c r="C1481" s="6" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="D1481" s="7"/>
     </row>
@@ -19428,7 +19443,7 @@
         <v>15480</v>
       </c>
       <c r="C1482" s="3" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D1482" s="4"/>
     </row>
@@ -19437,7 +19452,7 @@
         <v>15481</v>
       </c>
       <c r="C1483" s="6" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="D1483" s="7"/>
     </row>
@@ -19446,7 +19461,7 @@
         <v>15482</v>
       </c>
       <c r="C1484" s="3" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="D1484" s="4"/>
     </row>
@@ -19455,7 +19470,7 @@
         <v>15483</v>
       </c>
       <c r="C1485" s="6" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="D1485" s="7"/>
     </row>
@@ -19464,7 +19479,7 @@
         <v>15484</v>
       </c>
       <c r="C1486" s="3" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D1486" s="4"/>
     </row>
@@ -19473,7 +19488,7 @@
         <v>15485</v>
       </c>
       <c r="C1487" s="6" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="D1487" s="7"/>
     </row>
@@ -19482,7 +19497,7 @@
         <v>15486</v>
       </c>
       <c r="C1488" s="3" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D1488" s="4"/>
     </row>
@@ -19491,7 +19506,7 @@
         <v>15487</v>
       </c>
       <c r="C1489" s="6" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D1489" s="7"/>
     </row>
@@ -19500,7 +19515,7 @@
         <v>15488</v>
       </c>
       <c r="C1490" s="3" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="D1490" s="4"/>
     </row>
@@ -19509,7 +19524,7 @@
         <v>15489</v>
       </c>
       <c r="C1491" s="6" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D1491" s="7"/>
     </row>
@@ -19518,7 +19533,7 @@
         <v>15490</v>
       </c>
       <c r="C1492" s="3" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="D1492" s="4"/>
     </row>
@@ -19527,7 +19542,7 @@
         <v>15491</v>
       </c>
       <c r="C1493" s="6" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="D1493" s="7"/>
     </row>
@@ -19536,7 +19551,7 @@
         <v>15492</v>
       </c>
       <c r="C1494" s="3" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="D1494" s="4"/>
     </row>
@@ -19545,7 +19560,7 @@
         <v>15493</v>
       </c>
       <c r="C1495" s="6" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="D1495" s="7"/>
     </row>
@@ -19554,7 +19569,7 @@
         <v>15494</v>
       </c>
       <c r="C1496" s="3" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="D1496" s="4"/>
     </row>
@@ -19563,7 +19578,7 @@
         <v>15495</v>
       </c>
       <c r="C1497" s="6" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="D1497" s="7"/>
     </row>
@@ -19572,7 +19587,7 @@
         <v>15496</v>
       </c>
       <c r="C1498" s="3" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="D1498" s="4"/>
     </row>
@@ -19581,7 +19596,7 @@
         <v>15497</v>
       </c>
       <c r="C1499" s="6" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="D1499" s="7"/>
     </row>
@@ -19590,7 +19605,7 @@
         <v>15498</v>
       </c>
       <c r="C1500" s="3" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="D1500" s="4"/>
     </row>
@@ -19599,7 +19614,7 @@
         <v>15499</v>
       </c>
       <c r="C1501" s="6" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="D1501" s="7"/>
     </row>
@@ -19608,7 +19623,7 @@
         <v>15500</v>
       </c>
       <c r="C1502" s="3" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="D1502" s="4"/>
     </row>
@@ -19617,7 +19632,7 @@
         <v>15501</v>
       </c>
       <c r="C1503" s="6" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="D1503" s="7"/>
     </row>
@@ -19626,7 +19641,7 @@
         <v>15502</v>
       </c>
       <c r="C1504" s="3" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D1504" s="4"/>
     </row>
@@ -19635,7 +19650,7 @@
         <v>15503</v>
       </c>
       <c r="C1505" s="6" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="D1505" s="7"/>
     </row>
@@ -19644,7 +19659,7 @@
         <v>15504</v>
       </c>
       <c r="C1506" s="3" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="D1506" s="4"/>
     </row>
@@ -19653,7 +19668,7 @@
         <v>15505</v>
       </c>
       <c r="C1507" s="6" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="D1507" s="7"/>
     </row>
@@ -19662,7 +19677,7 @@
         <v>15506</v>
       </c>
       <c r="C1508" s="3" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="D1508" s="4"/>
     </row>
@@ -19671,7 +19686,7 @@
         <v>15507</v>
       </c>
       <c r="C1509" s="6" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="D1509" s="7"/>
     </row>
@@ -19680,7 +19695,7 @@
         <v>15508</v>
       </c>
       <c r="C1510" s="3" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D1510" s="4"/>
     </row>
@@ -19689,7 +19704,7 @@
         <v>15509</v>
       </c>
       <c r="C1511" s="6" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D1511" s="7"/>
     </row>
@@ -19698,7 +19713,7 @@
         <v>15510</v>
       </c>
       <c r="C1512" s="3" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="D1512" s="4"/>
     </row>
@@ -19707,7 +19722,7 @@
         <v>15511</v>
       </c>
       <c r="C1513" s="6" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="D1513" s="7"/>
     </row>
@@ -19716,7 +19731,7 @@
         <v>15512</v>
       </c>
       <c r="C1514" s="3" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D1514" s="4"/>
     </row>
@@ -19725,7 +19740,7 @@
         <v>15513</v>
       </c>
       <c r="C1515" s="6" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="D1515" s="7"/>
     </row>
@@ -19734,7 +19749,7 @@
         <v>15514</v>
       </c>
       <c r="C1516" s="3" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D1516" s="4"/>
     </row>
@@ -19743,7 +19758,7 @@
         <v>15515</v>
       </c>
       <c r="C1517" s="6" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D1517" s="7"/>
     </row>
@@ -19752,7 +19767,7 @@
         <v>15516</v>
       </c>
       <c r="C1518" s="3" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="D1518" s="4"/>
     </row>
@@ -19761,7 +19776,7 @@
         <v>15517</v>
       </c>
       <c r="C1519" s="6" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="D1519" s="7"/>
     </row>
@@ -19770,7 +19785,7 @@
         <v>15518</v>
       </c>
       <c r="C1520" s="3" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D1520" s="4"/>
     </row>
@@ -19779,7 +19794,7 @@
         <v>15519</v>
       </c>
       <c r="C1521" s="6" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="D1521" s="7"/>
     </row>
@@ -19788,7 +19803,7 @@
         <v>15520</v>
       </c>
       <c r="C1522" s="3" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D1522" s="4"/>
     </row>
@@ -19797,7 +19812,7 @@
         <v>15521</v>
       </c>
       <c r="C1523" s="6" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D1523" s="7"/>
     </row>
@@ -19806,7 +19821,7 @@
         <v>15522</v>
       </c>
       <c r="C1524" s="3" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="D1524" s="4"/>
     </row>
@@ -19815,7 +19830,7 @@
         <v>15523</v>
       </c>
       <c r="C1525" s="6" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D1525" s="7"/>
     </row>
@@ -19824,7 +19839,7 @@
         <v>15524</v>
       </c>
       <c r="C1526" s="3" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="D1526" s="4"/>
     </row>
@@ -19833,7 +19848,7 @@
         <v>15525</v>
       </c>
       <c r="C1527" s="6" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="D1527" s="7"/>
     </row>
@@ -19842,7 +19857,7 @@
         <v>15526</v>
       </c>
       <c r="C1528" s="3" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="D1528" s="4"/>
     </row>
@@ -19851,7 +19866,7 @@
         <v>15527</v>
       </c>
       <c r="C1529" s="6" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="D1529" s="7"/>
     </row>
@@ -19860,7 +19875,7 @@
         <v>15528</v>
       </c>
       <c r="C1530" s="3" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D1530" s="4"/>
     </row>
@@ -19869,7 +19884,7 @@
         <v>15529</v>
       </c>
       <c r="C1531" s="6" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="D1531" s="7"/>
     </row>
@@ -19878,7 +19893,7 @@
         <v>15530</v>
       </c>
       <c r="C1532" s="3" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="D1532" s="4"/>
     </row>
@@ -19887,7 +19902,7 @@
         <v>15531</v>
       </c>
       <c r="C1533" s="6" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="D1533" s="7"/>
     </row>
@@ -19896,7 +19911,7 @@
         <v>15532</v>
       </c>
       <c r="C1534" s="3" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="D1534" s="4"/>
     </row>
@@ -19905,7 +19920,7 @@
         <v>15533</v>
       </c>
       <c r="C1535" s="6" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="D1535" s="7"/>
     </row>
@@ -19914,7 +19929,7 @@
         <v>15534</v>
       </c>
       <c r="C1536" s="3" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="D1536" s="4"/>
     </row>
@@ -19923,7 +19938,7 @@
         <v>15535</v>
       </c>
       <c r="C1537" s="6" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D1537" s="7"/>
     </row>
@@ -19932,7 +19947,7 @@
         <v>15536</v>
       </c>
       <c r="C1538" s="3" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="D1538" s="4"/>
     </row>
@@ -19941,7 +19956,7 @@
         <v>15537</v>
       </c>
       <c r="C1539" s="6" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="D1539" s="7"/>
     </row>
@@ -19950,7 +19965,7 @@
         <v>15538</v>
       </c>
       <c r="C1540" s="3" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="D1540" s="4"/>
     </row>
@@ -19959,7 +19974,7 @@
         <v>15539</v>
       </c>
       <c r="C1541" s="6" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="D1541" s="7"/>
     </row>
@@ -19968,7 +19983,7 @@
         <v>15540</v>
       </c>
       <c r="C1542" s="3" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="D1542" s="4"/>
     </row>
@@ -19977,7 +19992,7 @@
         <v>15541</v>
       </c>
       <c r="C1543" s="6" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="D1543" s="7"/>
     </row>
@@ -19986,7 +20001,7 @@
         <v>15542</v>
       </c>
       <c r="C1544" s="3" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="D1544" s="4"/>
     </row>
@@ -19995,7 +20010,7 @@
         <v>15543</v>
       </c>
       <c r="C1545" s="6" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="D1545" s="7"/>
     </row>
@@ -20004,7 +20019,7 @@
         <v>15544</v>
       </c>
       <c r="C1546" s="3" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="D1546" s="4"/>
     </row>
@@ -20013,7 +20028,7 @@
         <v>15545</v>
       </c>
       <c r="C1547" s="6" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="D1547" s="7"/>
     </row>
@@ -20022,7 +20037,7 @@
         <v>15546</v>
       </c>
       <c r="C1548" s="3" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="D1548" s="4"/>
     </row>
@@ -20031,7 +20046,7 @@
         <v>15547</v>
       </c>
       <c r="C1549" s="6" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="D1549" s="7"/>
     </row>
@@ -20040,7 +20055,7 @@
         <v>15548</v>
       </c>
       <c r="C1550" s="3" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="D1550" s="4"/>
     </row>
@@ -20049,7 +20064,7 @@
         <v>15549</v>
       </c>
       <c r="C1551" s="6" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="D1551" s="7"/>
     </row>
@@ -20058,7 +20073,7 @@
         <v>15550</v>
       </c>
       <c r="C1552" s="3" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="D1552" s="4"/>
     </row>
@@ -20067,7 +20082,7 @@
         <v>15551</v>
       </c>
       <c r="C1553" s="6" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D1553" s="7"/>
     </row>
@@ -20076,7 +20091,7 @@
         <v>15552</v>
       </c>
       <c r="C1554" s="3" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="D1554" s="4"/>
     </row>
@@ -20085,7 +20100,7 @@
         <v>15553</v>
       </c>
       <c r="C1555" s="6" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="D1555" s="7"/>
     </row>
@@ -20094,7 +20109,7 @@
         <v>15554</v>
       </c>
       <c r="C1556" s="3" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="D1556" s="4"/>
     </row>
@@ -20103,7 +20118,7 @@
         <v>15555</v>
       </c>
       <c r="C1557" s="6" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="D1557" s="7"/>
     </row>
@@ -20112,7 +20127,7 @@
         <v>15556</v>
       </c>
       <c r="C1558" s="3" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="D1558" s="4"/>
     </row>
@@ -20121,7 +20136,7 @@
         <v>15557</v>
       </c>
       <c r="C1559" s="6" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="D1559" s="7"/>
     </row>
@@ -20130,7 +20145,7 @@
         <v>15558</v>
       </c>
       <c r="C1560" s="3" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="D1560" s="4"/>
     </row>
@@ -20139,7 +20154,7 @@
         <v>15559</v>
       </c>
       <c r="C1561" s="6" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="D1561" s="7"/>
     </row>
@@ -20148,7 +20163,7 @@
         <v>15560</v>
       </c>
       <c r="C1562" s="3" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D1562" s="4"/>
     </row>
@@ -20157,7 +20172,7 @@
         <v>15561</v>
       </c>
       <c r="C1563" s="6" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="D1563" s="7"/>
     </row>
@@ -20166,7 +20181,7 @@
         <v>15562</v>
       </c>
       <c r="C1564" s="3" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D1564" s="4"/>
     </row>
@@ -20175,7 +20190,7 @@
         <v>15563</v>
       </c>
       <c r="C1565" s="6" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="D1565" s="7"/>
     </row>
@@ -20184,7 +20199,7 @@
         <v>15564</v>
       </c>
       <c r="C1566" s="3" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="D1566" s="4"/>
     </row>
@@ -20193,7 +20208,7 @@
         <v>15565</v>
       </c>
       <c r="C1567" s="6" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="D1567" s="7"/>
     </row>
@@ -20202,7 +20217,7 @@
         <v>15566</v>
       </c>
       <c r="C1568" s="3" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="D1568" s="4"/>
     </row>
@@ -20211,7 +20226,7 @@
         <v>15567</v>
       </c>
       <c r="C1569" s="6" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="D1569" s="7"/>
     </row>
@@ -20220,7 +20235,7 @@
         <v>15568</v>
       </c>
       <c r="C1570" s="3" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="D1570" s="4"/>
     </row>
@@ -20229,7 +20244,7 @@
         <v>15569</v>
       </c>
       <c r="C1571" s="6" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="D1571" s="7"/>
     </row>
@@ -20238,7 +20253,7 @@
         <v>15570</v>
       </c>
       <c r="C1572" s="3" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="D1572" s="4"/>
     </row>
@@ -20247,7 +20262,7 @@
         <v>15571</v>
       </c>
       <c r="C1573" s="6" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="D1573" s="7"/>
     </row>
@@ -20256,7 +20271,7 @@
         <v>15572</v>
       </c>
       <c r="C1574" s="3" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="D1574" s="4"/>
     </row>
@@ -20265,7 +20280,7 @@
         <v>15573</v>
       </c>
       <c r="C1575" s="6" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="D1575" s="7"/>
     </row>
@@ -20274,7 +20289,7 @@
         <v>15574</v>
       </c>
       <c r="C1576" s="3" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="D1576" s="4"/>
     </row>
@@ -20283,7 +20298,7 @@
         <v>15575</v>
       </c>
       <c r="C1577" s="6" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="D1577" s="7"/>
     </row>
@@ -20292,7 +20307,7 @@
         <v>15576</v>
       </c>
       <c r="C1578" s="3" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="D1578" s="4"/>
     </row>
@@ -20301,7 +20316,7 @@
         <v>15577</v>
       </c>
       <c r="C1579" s="6" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="D1579" s="7"/>
     </row>
@@ -20310,7 +20325,7 @@
         <v>15578</v>
       </c>
       <c r="C1580" s="3" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="D1580" s="4"/>
     </row>
@@ -20319,7 +20334,7 @@
         <v>15579</v>
       </c>
       <c r="C1581" s="6" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="D1581" s="7"/>
     </row>
@@ -20328,7 +20343,7 @@
         <v>15580</v>
       </c>
       <c r="C1582" s="3" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="D1582" s="4"/>
     </row>
@@ -20337,7 +20352,7 @@
         <v>15581</v>
       </c>
       <c r="C1583" s="6" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="D1583" s="7"/>
     </row>
@@ -20346,7 +20361,7 @@
         <v>15582</v>
       </c>
       <c r="C1584" s="3" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="D1584" s="4"/>
     </row>
@@ -20355,7 +20370,7 @@
         <v>15583</v>
       </c>
       <c r="C1585" s="6" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="D1585" s="7"/>
     </row>
@@ -20364,7 +20379,7 @@
         <v>15584</v>
       </c>
       <c r="C1586" s="3" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="D1586" s="4"/>
     </row>
@@ -20373,7 +20388,7 @@
         <v>15585</v>
       </c>
       <c r="C1587" s="6" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="D1587" s="7"/>
     </row>
@@ -20382,7 +20397,7 @@
         <v>15586</v>
       </c>
       <c r="C1588" s="3" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="D1588" s="4"/>
     </row>
@@ -20391,7 +20406,7 @@
         <v>15587</v>
       </c>
       <c r="C1589" s="6" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="D1589" s="7"/>
     </row>
@@ -20400,7 +20415,7 @@
         <v>15588</v>
       </c>
       <c r="C1590" s="3" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="D1590" s="4"/>
     </row>
@@ -20409,7 +20424,7 @@
         <v>15589</v>
       </c>
       <c r="C1591" s="6" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="D1591" s="7"/>
     </row>
@@ -20418,7 +20433,7 @@
         <v>15590</v>
       </c>
       <c r="C1592" s="3" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="D1592" s="4"/>
     </row>
@@ -20427,7 +20442,7 @@
         <v>15591</v>
       </c>
       <c r="C1593" s="6" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="D1593" s="7"/>
     </row>
@@ -20436,7 +20451,7 @@
         <v>15592</v>
       </c>
       <c r="C1594" s="3" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="D1594" s="4"/>
     </row>
@@ -20445,7 +20460,7 @@
         <v>15593</v>
       </c>
       <c r="C1595" s="6" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D1595" s="7"/>
     </row>
@@ -20454,7 +20469,7 @@
         <v>15594</v>
       </c>
       <c r="C1596" s="3" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="D1596" s="4"/>
     </row>
@@ -20463,7 +20478,7 @@
         <v>15595</v>
       </c>
       <c r="C1597" s="6" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D1597" s="7"/>
     </row>
@@ -20472,7 +20487,7 @@
         <v>15596</v>
       </c>
       <c r="C1598" s="3" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="D1598" s="4"/>
     </row>
@@ -20481,7 +20496,7 @@
         <v>15597</v>
       </c>
       <c r="C1599" s="6" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="D1599" s="7"/>
     </row>
@@ -20490,7 +20505,7 @@
         <v>15598</v>
       </c>
       <c r="C1600" s="3" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="D1600" s="4"/>
     </row>
@@ -20499,7 +20514,7 @@
         <v>15599</v>
       </c>
       <c r="C1601" s="6" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="D1601" s="7"/>
     </row>
@@ -20508,7 +20523,7 @@
         <v>15600</v>
       </c>
       <c r="C1602" s="3" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="D1602" s="4"/>
     </row>
@@ -20517,7 +20532,7 @@
         <v>15601</v>
       </c>
       <c r="C1603" s="6" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="D1603" s="7"/>
     </row>
@@ -20526,7 +20541,7 @@
         <v>15602</v>
       </c>
       <c r="C1604" s="3" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D1604" s="4"/>
     </row>
@@ -20535,7 +20550,7 @@
         <v>15603</v>
       </c>
       <c r="C1605" s="6" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="D1605" s="7"/>
     </row>
@@ -20544,7 +20559,7 @@
         <v>15604</v>
       </c>
       <c r="C1606" s="3" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="D1606" s="4"/>
     </row>
@@ -20553,7 +20568,7 @@
         <v>15605</v>
       </c>
       <c r="C1607" s="6" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="D1607" s="7"/>
     </row>
@@ -20562,7 +20577,7 @@
         <v>15606</v>
       </c>
       <c r="C1608" s="3" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="D1608" s="4"/>
     </row>
@@ -20571,7 +20586,7 @@
         <v>15607</v>
       </c>
       <c r="C1609" s="6" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="D1609" s="7"/>
     </row>
@@ -20580,7 +20595,7 @@
         <v>15608</v>
       </c>
       <c r="C1610" s="3" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="D1610" s="4"/>
     </row>
@@ -20589,7 +20604,7 @@
         <v>15609</v>
       </c>
       <c r="C1611" s="6" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="D1611" s="7"/>
     </row>
@@ -20598,7 +20613,7 @@
         <v>15610</v>
       </c>
       <c r="C1612" s="3" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="D1612" s="4"/>
     </row>
@@ -20607,7 +20622,7 @@
         <v>15611</v>
       </c>
       <c r="C1613" s="6" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="D1613" s="7"/>
     </row>
@@ -20616,7 +20631,7 @@
         <v>15612</v>
       </c>
       <c r="C1614" s="3" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D1614" s="4"/>
     </row>
@@ -20625,7 +20640,7 @@
         <v>15613</v>
       </c>
       <c r="C1615" s="6" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="D1615" s="7"/>
     </row>
@@ -20634,7 +20649,7 @@
         <v>15614</v>
       </c>
       <c r="C1616" s="3" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="D1616" s="4"/>
     </row>
@@ -20643,7 +20658,7 @@
         <v>15615</v>
       </c>
       <c r="C1617" s="6" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="D1617" s="7"/>
     </row>
@@ -20652,7 +20667,7 @@
         <v>15616</v>
       </c>
       <c r="C1618" s="3" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="D1618" s="4"/>
     </row>
@@ -20661,7 +20676,7 @@
         <v>15617</v>
       </c>
       <c r="C1619" s="6" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="D1619" s="7"/>
     </row>
@@ -20670,7 +20685,7 @@
         <v>15618</v>
       </c>
       <c r="C1620" s="3" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="D1620" s="4"/>
     </row>
@@ -20679,7 +20694,7 @@
         <v>15619</v>
       </c>
       <c r="C1621" s="6" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="D1621" s="7"/>
     </row>
@@ -20688,7 +20703,7 @@
         <v>15620</v>
       </c>
       <c r="C1622" s="3" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="D1622" s="4"/>
     </row>
@@ -20697,7 +20712,7 @@
         <v>15621</v>
       </c>
       <c r="C1623" s="6" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="D1623" s="7"/>
     </row>
@@ -20706,7 +20721,7 @@
         <v>15622</v>
       </c>
       <c r="C1624" s="3" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="D1624" s="4"/>
     </row>
@@ -20715,7 +20730,7 @@
         <v>15623</v>
       </c>
       <c r="C1625" s="6" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="D1625" s="7"/>
     </row>
@@ -20724,7 +20739,7 @@
         <v>15624</v>
       </c>
       <c r="C1626" s="3" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="D1626" s="4"/>
     </row>
@@ -20733,7 +20748,7 @@
         <v>15625</v>
       </c>
       <c r="C1627" s="6" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="D1627" s="7"/>
     </row>
@@ -20742,7 +20757,7 @@
         <v>15626</v>
       </c>
       <c r="C1628" s="3" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="D1628" s="4"/>
     </row>
@@ -20751,7 +20766,7 @@
         <v>15627</v>
       </c>
       <c r="C1629" s="6" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="D1629" s="7"/>
     </row>
@@ -20760,7 +20775,7 @@
         <v>15628</v>
       </c>
       <c r="C1630" s="3" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="D1630" s="4"/>
     </row>
@@ -20769,7 +20784,7 @@
         <v>15629</v>
       </c>
       <c r="C1631" s="6" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="D1631" s="7"/>
     </row>
@@ -20778,7 +20793,7 @@
         <v>15630</v>
       </c>
       <c r="C1632" s="3" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="D1632" s="4"/>
     </row>
@@ -20787,7 +20802,7 @@
         <v>15631</v>
       </c>
       <c r="C1633" s="6" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="D1633" s="7"/>
     </row>
@@ -20796,7 +20811,7 @@
         <v>15632</v>
       </c>
       <c r="C1634" s="3" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="D1634" s="4"/>
     </row>
@@ -20805,7 +20820,7 @@
         <v>15633</v>
       </c>
       <c r="C1635" s="6" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="D1635" s="7"/>
     </row>
@@ -20814,7 +20829,7 @@
         <v>15634</v>
       </c>
       <c r="C1636" s="3" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="D1636" s="4"/>
     </row>
@@ -20823,7 +20838,7 @@
         <v>15635</v>
       </c>
       <c r="C1637" s="6" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="D1637" s="7"/>
     </row>
@@ -20832,7 +20847,7 @@
         <v>15636</v>
       </c>
       <c r="C1638" s="3" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="D1638" s="4"/>
     </row>
@@ -20841,7 +20856,7 @@
         <v>15637</v>
       </c>
       <c r="C1639" s="6" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="D1639" s="7"/>
     </row>
@@ -20850,7 +20865,7 @@
         <v>15638</v>
       </c>
       <c r="C1640" s="3" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="D1640" s="4"/>
     </row>
@@ -20859,7 +20874,7 @@
         <v>15639</v>
       </c>
       <c r="C1641" s="6" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="D1641" s="7"/>
     </row>
@@ -20868,7 +20883,7 @@
         <v>15640</v>
       </c>
       <c r="C1642" s="3" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="D1642" s="4"/>
     </row>
@@ -20877,7 +20892,7 @@
         <v>15641</v>
       </c>
       <c r="C1643" s="6" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="D1643" s="7"/>
     </row>
@@ -20886,7 +20901,7 @@
         <v>15642</v>
       </c>
       <c r="C1644" s="3" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="D1644" s="4"/>
     </row>
@@ -20895,7 +20910,7 @@
         <v>15643</v>
       </c>
       <c r="C1645" s="6" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="D1645" s="7"/>
     </row>
@@ -20904,7 +20919,7 @@
         <v>15644</v>
       </c>
       <c r="C1646" s="3" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D1646" s="4"/>
     </row>
@@ -20913,7 +20928,7 @@
         <v>15645</v>
       </c>
       <c r="C1647" s="6" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D1647" s="7"/>
     </row>
@@ -20922,7 +20937,7 @@
         <v>15646</v>
       </c>
       <c r="C1648" s="3" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="D1648" s="4"/>
     </row>
@@ -20931,7 +20946,7 @@
         <v>15647</v>
       </c>
       <c r="C1649" s="6" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="D1649" s="7"/>
     </row>
@@ -20940,7 +20955,7 @@
         <v>15648</v>
       </c>
       <c r="C1650" s="3" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="D1650" s="4"/>
     </row>
@@ -20949,7 +20964,7 @@
         <v>15649</v>
       </c>
       <c r="C1651" s="6" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D1651" s="7"/>
     </row>
@@ -20958,7 +20973,7 @@
         <v>15650</v>
       </c>
       <c r="C1652" s="3" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="D1652" s="4"/>
     </row>
@@ -20967,7 +20982,7 @@
         <v>15651</v>
       </c>
       <c r="C1653" s="6" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="D1653" s="7"/>
     </row>
@@ -20976,7 +20991,7 @@
         <v>15652</v>
       </c>
       <c r="C1654" s="3" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D1654" s="4"/>
     </row>
@@ -20985,7 +21000,7 @@
         <v>15653</v>
       </c>
       <c r="C1655" s="6" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="D1655" s="7"/>
     </row>
@@ -20994,7 +21009,7 @@
         <v>15654</v>
       </c>
       <c r="C1656" s="3" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="D1656" s="4"/>
     </row>
@@ -21003,7 +21018,7 @@
         <v>15655</v>
       </c>
       <c r="C1657" s="6" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="D1657" s="7"/>
     </row>
@@ -21012,7 +21027,7 @@
         <v>15656</v>
       </c>
       <c r="C1658" s="3" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="D1658" s="4"/>
     </row>
@@ -21021,7 +21036,7 @@
         <v>15657</v>
       </c>
       <c r="C1659" s="6" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="D1659" s="7"/>
     </row>
@@ -21030,7 +21045,7 @@
         <v>15658</v>
       </c>
       <c r="C1660" s="3" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="D1660" s="4"/>
     </row>
@@ -21039,7 +21054,7 @@
         <v>15659</v>
       </c>
       <c r="C1661" s="6" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="D1661" s="7"/>
     </row>
@@ -21048,7 +21063,7 @@
         <v>15660</v>
       </c>
       <c r="C1662" s="3" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="D1662" s="4"/>
     </row>
@@ -21057,7 +21072,7 @@
         <v>15661</v>
       </c>
       <c r="C1663" s="6" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="D1663" s="7"/>
     </row>
@@ -21066,7 +21081,7 @@
         <v>15662</v>
       </c>
       <c r="C1664" s="3" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="D1664" s="4"/>
     </row>
@@ -21075,7 +21090,7 @@
         <v>15663</v>
       </c>
       <c r="C1665" s="6" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D1665" s="7"/>
     </row>
@@ -21084,7 +21099,7 @@
         <v>15664</v>
       </c>
       <c r="C1666" s="3" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="D1666" s="4"/>
     </row>
@@ -21093,7 +21108,7 @@
         <v>15665</v>
       </c>
       <c r="C1667" s="6" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="D1667" s="7"/>
     </row>
@@ -21102,7 +21117,7 @@
         <v>15666</v>
       </c>
       <c r="C1668" s="3" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="D1668" s="4"/>
     </row>
@@ -21111,7 +21126,7 @@
         <v>15667</v>
       </c>
       <c r="C1669" s="6" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="D1669" s="7"/>
     </row>
@@ -21120,7 +21135,7 @@
         <v>15668</v>
       </c>
       <c r="C1670" s="3" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="D1670" s="4"/>
     </row>
@@ -21129,7 +21144,7 @@
         <v>15669</v>
       </c>
       <c r="C1671" s="6" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="D1671" s="7"/>
     </row>
@@ -21138,7 +21153,7 @@
         <v>15670</v>
       </c>
       <c r="C1672" s="3" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D1672" s="4"/>
     </row>
@@ -21147,7 +21162,7 @@
         <v>15671</v>
       </c>
       <c r="C1673" s="6" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="D1673" s="7"/>
     </row>
@@ -21156,7 +21171,7 @@
         <v>15672</v>
       </c>
       <c r="C1674" s="3" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="D1674" s="4"/>
     </row>
@@ -21165,7 +21180,7 @@
         <v>15673</v>
       </c>
       <c r="C1675" s="6" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="D1675" s="7"/>
     </row>
@@ -21174,7 +21189,7 @@
         <v>15674</v>
       </c>
       <c r="C1676" s="3" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="D1676" s="4"/>
     </row>
@@ -21183,7 +21198,7 @@
         <v>15675</v>
       </c>
       <c r="C1677" s="6" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="D1677" s="7"/>
     </row>
@@ -21192,7 +21207,7 @@
         <v>15676</v>
       </c>
       <c r="C1678" s="3" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="D1678" s="4"/>
     </row>
@@ -21201,7 +21216,7 @@
         <v>15677</v>
       </c>
       <c r="C1679" s="6" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="D1679" s="7"/>
     </row>
@@ -21210,7 +21225,7 @@
         <v>15678</v>
       </c>
       <c r="C1680" s="3" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="D1680" s="4"/>
     </row>
@@ -21219,7 +21234,7 @@
         <v>15679</v>
       </c>
       <c r="C1681" s="6" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="D1681" s="7"/>
     </row>
@@ -21228,7 +21243,7 @@
         <v>15680</v>
       </c>
       <c r="C1682" s="3" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="D1682" s="4"/>
     </row>
@@ -21237,7 +21252,7 @@
         <v>15681</v>
       </c>
       <c r="C1683" s="6" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="D1683" s="7"/>
     </row>
@@ -21246,7 +21261,7 @@
         <v>15682</v>
       </c>
       <c r="C1684" s="3" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="D1684" s="4"/>
     </row>
@@ -21255,7 +21270,7 @@
         <v>15683</v>
       </c>
       <c r="C1685" s="6" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="D1685" s="7"/>
     </row>
@@ -21264,7 +21279,7 @@
         <v>15684</v>
       </c>
       <c r="C1686" s="3" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="D1686" s="4"/>
     </row>
@@ -21273,7 +21288,7 @@
         <v>15685</v>
       </c>
       <c r="C1687" s="6" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="D1687" s="7"/>
     </row>
@@ -21282,7 +21297,7 @@
         <v>15686</v>
       </c>
       <c r="C1688" s="3" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="D1688" s="4"/>
     </row>
@@ -21291,7 +21306,7 @@
         <v>15687</v>
       </c>
       <c r="C1689" s="6" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="D1689" s="7"/>
     </row>
@@ -21300,7 +21315,7 @@
         <v>15688</v>
       </c>
       <c r="C1690" s="3" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="D1690" s="4"/>
     </row>
@@ -21309,7 +21324,7 @@
         <v>15689</v>
       </c>
       <c r="C1691" s="6" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="D1691" s="7"/>
     </row>
@@ -21318,7 +21333,7 @@
         <v>15690</v>
       </c>
       <c r="C1692" s="3" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="D1692" s="4"/>
     </row>
@@ -21327,7 +21342,7 @@
         <v>15691</v>
       </c>
       <c r="C1693" s="6" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="D1693" s="7"/>
     </row>
@@ -21336,7 +21351,7 @@
         <v>15692</v>
       </c>
       <c r="C1694" s="3" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="D1694" s="4"/>
     </row>
@@ -21345,7 +21360,7 @@
         <v>15693</v>
       </c>
       <c r="C1695" s="6" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="D1695" s="7"/>
     </row>
@@ -21354,7 +21369,7 @@
         <v>15694</v>
       </c>
       <c r="C1696" s="3" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="D1696" s="4"/>
     </row>
@@ -21363,7 +21378,7 @@
         <v>15695</v>
       </c>
       <c r="C1697" s="6" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="D1697" s="7"/>
     </row>
@@ -21372,7 +21387,7 @@
         <v>15696</v>
       </c>
       <c r="C1698" s="3" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="D1698" s="4"/>
     </row>
@@ -21381,7 +21396,7 @@
         <v>15697</v>
       </c>
       <c r="C1699" s="6" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="D1699" s="7"/>
     </row>
@@ -21390,7 +21405,7 @@
         <v>15698</v>
       </c>
       <c r="C1700" s="3" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="D1700" s="4"/>
     </row>
@@ -21399,7 +21414,7 @@
         <v>15699</v>
       </c>
       <c r="C1701" s="6" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="D1701" s="7"/>
     </row>
@@ -21408,7 +21423,7 @@
         <v>15700</v>
       </c>
       <c r="C1702" s="3" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="D1702" s="4"/>
     </row>
@@ -21417,7 +21432,7 @@
         <v>15701</v>
       </c>
       <c r="C1703" s="6" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="D1703" s="7"/>
     </row>
@@ -21426,7 +21441,7 @@
         <v>15702</v>
       </c>
       <c r="C1704" s="3" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="D1704" s="4"/>
     </row>
@@ -21435,7 +21450,7 @@
         <v>15703</v>
       </c>
       <c r="C1705" s="6" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="D1705" s="7"/>
     </row>
@@ -21444,7 +21459,7 @@
         <v>15704</v>
       </c>
       <c r="C1706" s="3" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="D1706" s="4"/>
     </row>
@@ -21453,7 +21468,7 @@
         <v>15705</v>
       </c>
       <c r="C1707" s="6" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="D1707" s="7"/>
     </row>
@@ -21462,7 +21477,7 @@
         <v>15706</v>
       </c>
       <c r="C1708" s="3" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="D1708" s="4"/>
     </row>
@@ -21471,7 +21486,7 @@
         <v>15707</v>
       </c>
       <c r="C1709" s="6" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="D1709" s="7"/>
     </row>
@@ -21480,7 +21495,7 @@
         <v>15708</v>
       </c>
       <c r="C1710" s="3" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="D1710" s="4"/>
     </row>
@@ -21489,7 +21504,7 @@
         <v>15709</v>
       </c>
       <c r="C1711" s="6" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="D1711" s="7"/>
     </row>
@@ -21498,7 +21513,7 @@
         <v>15710</v>
       </c>
       <c r="C1712" s="3" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="D1712" s="4"/>
     </row>
@@ -21507,7 +21522,7 @@
         <v>15711</v>
       </c>
       <c r="C1713" s="6" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="D1713" s="7"/>
     </row>
@@ -21516,7 +21531,7 @@
         <v>15712</v>
       </c>
       <c r="C1714" s="3" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="D1714" s="4"/>
     </row>
@@ -21525,7 +21540,7 @@
         <v>15713</v>
       </c>
       <c r="C1715" s="6" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="D1715" s="7"/>
     </row>
@@ -21534,7 +21549,7 @@
         <v>15714</v>
       </c>
       <c r="C1716" s="3" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="D1716" s="4"/>
     </row>
@@ -21543,7 +21558,7 @@
         <v>15715</v>
       </c>
       <c r="C1717" s="6" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="D1717" s="7"/>
     </row>
@@ -21552,7 +21567,7 @@
         <v>15716</v>
       </c>
       <c r="C1718" s="3" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="D1718" s="4"/>
     </row>
@@ -21561,7 +21576,7 @@
         <v>15717</v>
       </c>
       <c r="C1719" s="6" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="D1719" s="7"/>
     </row>
@@ -21570,7 +21585,7 @@
         <v>15718</v>
       </c>
       <c r="C1720" s="3" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="D1720" s="4"/>
     </row>
@@ -21579,7 +21594,7 @@
         <v>15719</v>
       </c>
       <c r="C1721" s="6" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="D1721" s="7"/>
     </row>
@@ -21588,7 +21603,7 @@
         <v>15720</v>
       </c>
       <c r="C1722" s="3" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="D1722" s="4"/>
     </row>
@@ -21597,7 +21612,7 @@
         <v>15721</v>
       </c>
       <c r="C1723" s="6" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="D1723" s="7"/>
     </row>
@@ -21606,7 +21621,7 @@
         <v>15722</v>
       </c>
       <c r="C1724" s="3" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="D1724" s="4"/>
     </row>
@@ -21615,7 +21630,7 @@
         <v>15723</v>
       </c>
       <c r="C1725" s="6" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="D1725" s="7"/>
     </row>
@@ -21624,7 +21639,7 @@
         <v>15724</v>
       </c>
       <c r="C1726" s="3" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="D1726" s="4"/>
     </row>
@@ -21633,7 +21648,7 @@
         <v>15725</v>
       </c>
       <c r="C1727" s="6" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="D1727" s="7"/>
     </row>
@@ -21642,7 +21657,7 @@
         <v>15726</v>
       </c>
       <c r="C1728" s="3" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="D1728" s="4"/>
     </row>
@@ -21651,7 +21666,7 @@
         <v>15727</v>
       </c>
       <c r="C1729" s="6" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="D1729" s="7"/>
     </row>
@@ -21660,7 +21675,7 @@
         <v>15728</v>
       </c>
       <c r="C1730" s="3" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="D1730" s="4"/>
     </row>
@@ -21669,7 +21684,7 @@
         <v>15729</v>
       </c>
       <c r="C1731" s="6" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="D1731" s="7"/>
     </row>
@@ -21678,7 +21693,7 @@
         <v>15730</v>
       </c>
       <c r="C1732" s="3" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="D1732" s="4"/>
     </row>
@@ -21687,7 +21702,7 @@
         <v>15731</v>
       </c>
       <c r="C1733" s="6" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="D1733" s="7"/>
     </row>
@@ -21696,7 +21711,7 @@
         <v>15732</v>
       </c>
       <c r="C1734" s="3" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="D1734" s="4"/>
     </row>
@@ -21705,7 +21720,7 @@
         <v>15733</v>
       </c>
       <c r="C1735" s="6" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="D1735" s="7"/>
     </row>
@@ -21714,7 +21729,7 @@
         <v>15734</v>
       </c>
       <c r="C1736" s="3" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="D1736" s="4"/>
     </row>
@@ -21723,7 +21738,7 @@
         <v>15735</v>
       </c>
       <c r="C1737" s="6" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="D1737" s="7"/>
     </row>
@@ -21732,7 +21747,7 @@
         <v>15736</v>
       </c>
       <c r="C1738" s="3" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="D1738" s="4"/>
     </row>
@@ -21741,7 +21756,7 @@
         <v>15737</v>
       </c>
       <c r="C1739" s="6" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="D1739" s="7"/>
     </row>
@@ -21750,7 +21765,7 @@
         <v>15738</v>
       </c>
       <c r="C1740" s="3" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="D1740" s="4"/>
     </row>
@@ -21759,7 +21774,7 @@
         <v>15739</v>
       </c>
       <c r="C1741" s="6" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="D1741" s="7"/>
     </row>
@@ -21768,7 +21783,7 @@
         <v>15740</v>
       </c>
       <c r="C1742" s="3" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="D1742" s="4"/>
     </row>
@@ -21777,7 +21792,7 @@
         <v>15741</v>
       </c>
       <c r="C1743" s="6" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="D1743" s="7"/>
     </row>
@@ -21786,7 +21801,7 @@
         <v>15742</v>
       </c>
       <c r="C1744" s="3" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="D1744" s="4"/>
     </row>
@@ -21795,7 +21810,7 @@
         <v>15743</v>
       </c>
       <c r="C1745" s="6" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D1745" s="7"/>
     </row>
@@ -21804,7 +21819,7 @@
         <v>15744</v>
       </c>
       <c r="C1746" s="3" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="D1746" s="4"/>
     </row>
@@ -21813,7 +21828,7 @@
         <v>15745</v>
       </c>
       <c r="C1747" s="6" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="D1747" s="7"/>
     </row>
@@ -21822,7 +21837,7 @@
         <v>15746</v>
       </c>
       <c r="C1748" s="3" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="D1748" s="4"/>
     </row>
@@ -21831,7 +21846,7 @@
         <v>15747</v>
       </c>
       <c r="C1749" s="6" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="D1749" s="7"/>
     </row>
@@ -21840,7 +21855,7 @@
         <v>15748</v>
       </c>
       <c r="C1750" s="3" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="D1750" s="4"/>
     </row>
@@ -21849,7 +21864,7 @@
         <v>15749</v>
       </c>
       <c r="C1751" s="6" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="D1751" s="7"/>
     </row>
@@ -21858,7 +21873,7 @@
         <v>15750</v>
       </c>
       <c r="C1752" s="3" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="D1752" s="4"/>
     </row>
@@ -21867,7 +21882,7 @@
         <v>15751</v>
       </c>
       <c r="C1753" s="6" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="D1753" s="7"/>
     </row>
@@ -21876,7 +21891,7 @@
         <v>15752</v>
       </c>
       <c r="C1754" s="3" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="D1754" s="4"/>
     </row>
@@ -21885,7 +21900,7 @@
         <v>15753</v>
       </c>
       <c r="C1755" s="6" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="D1755" s="7"/>
     </row>
@@ -21894,7 +21909,7 @@
         <v>15754</v>
       </c>
       <c r="C1756" s="3" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="D1756" s="4"/>
     </row>
@@ -21903,7 +21918,7 @@
         <v>15755</v>
       </c>
       <c r="C1757" s="6" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="D1757" s="7"/>
     </row>
@@ -21912,7 +21927,7 @@
         <v>15756</v>
       </c>
       <c r="C1758" s="3" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="D1758" s="4"/>
     </row>
@@ -21921,7 +21936,7 @@
         <v>15757</v>
       </c>
       <c r="C1759" s="6" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="D1759" s="7"/>
     </row>
@@ -21930,7 +21945,7 @@
         <v>15758</v>
       </c>
       <c r="C1760" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D1760" s="4"/>
     </row>
@@ -21939,7 +21954,7 @@
         <v>15759</v>
       </c>
       <c r="C1761" s="6" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="D1761" s="7"/>
     </row>
@@ -21948,7 +21963,7 @@
         <v>15760</v>
       </c>
       <c r="C1762" s="3" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="D1762" s="4"/>
     </row>
@@ -21957,7 +21972,7 @@
         <v>15761</v>
       </c>
       <c r="C1763" s="6" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="D1763" s="7"/>
     </row>
@@ -21966,7 +21981,7 @@
         <v>15762</v>
       </c>
       <c r="C1764" s="3" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="D1764" s="4"/>
     </row>
@@ -21975,7 +21990,7 @@
         <v>15763</v>
       </c>
       <c r="C1765" s="6" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="D1765" s="7"/>
     </row>
@@ -21984,7 +21999,7 @@
         <v>15764</v>
       </c>
       <c r="C1766" s="3" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="D1766" s="4"/>
     </row>
@@ -21993,7 +22008,7 @@
         <v>15765</v>
       </c>
       <c r="C1767" s="6" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="D1767" s="7"/>
     </row>
@@ -22002,7 +22017,7 @@
         <v>15766</v>
       </c>
       <c r="C1768" s="3" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="D1768" s="4"/>
     </row>
@@ -22011,7 +22026,7 @@
         <v>15767</v>
       </c>
       <c r="C1769" s="6" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="D1769" s="7"/>
     </row>
@@ -22020,7 +22035,7 @@
         <v>15768</v>
       </c>
       <c r="C1770" s="3" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="D1770" s="4"/>
     </row>
@@ -22029,7 +22044,7 @@
         <v>15769</v>
       </c>
       <c r="C1771" s="6" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="D1771" s="7"/>
     </row>
@@ -22038,7 +22053,7 @@
         <v>15770</v>
       </c>
       <c r="C1772" s="3" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="D1772" s="4"/>
     </row>
@@ -22047,7 +22062,7 @@
         <v>15771</v>
       </c>
       <c r="C1773" s="6" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="D1773" s="7"/>
     </row>
@@ -22056,7 +22071,7 @@
         <v>15772</v>
       </c>
       <c r="C1774" s="3" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="D1774" s="4"/>
     </row>
@@ -22065,7 +22080,7 @@
         <v>15773</v>
       </c>
       <c r="C1775" s="6" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="D1775" s="7"/>
     </row>
@@ -22074,7 +22089,7 @@
         <v>15774</v>
       </c>
       <c r="C1776" s="3" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="D1776" s="4"/>
     </row>
@@ -22083,7 +22098,7 @@
         <v>15775</v>
       </c>
       <c r="C1777" s="6" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="D1777" s="7"/>
     </row>
@@ -22092,7 +22107,7 @@
         <v>15776</v>
       </c>
       <c r="C1778" s="3" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="D1778" s="4"/>
     </row>
@@ -22101,7 +22116,7 @@
         <v>15777</v>
       </c>
       <c r="C1779" s="6" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="D1779" s="7"/>
     </row>
@@ -22110,7 +22125,7 @@
         <v>15778</v>
       </c>
       <c r="C1780" s="3" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="D1780" s="4"/>
     </row>
@@ -22119,7 +22134,7 @@
         <v>15779</v>
       </c>
       <c r="C1781" s="6" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="D1781" s="7"/>
     </row>
@@ -22128,7 +22143,7 @@
         <v>15780</v>
       </c>
       <c r="C1782" s="3" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="D1782" s="4"/>
     </row>
@@ -22137,7 +22152,7 @@
         <v>15781</v>
       </c>
       <c r="C1783" s="6" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="D1783" s="7"/>
     </row>
@@ -22146,7 +22161,7 @@
         <v>15782</v>
       </c>
       <c r="C1784" s="3" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D1784" s="4"/>
     </row>
@@ -22155,7 +22170,7 @@
         <v>15783</v>
       </c>
       <c r="C1785" s="6" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="D1785" s="7"/>
     </row>
@@ -22164,7 +22179,7 @@
         <v>15784</v>
       </c>
       <c r="C1786" s="3" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="D1786" s="4"/>
     </row>
@@ -22173,7 +22188,7 @@
         <v>15785</v>
       </c>
       <c r="C1787" s="6" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="D1787" s="7"/>
     </row>
@@ -22182,7 +22197,7 @@
         <v>15786</v>
       </c>
       <c r="C1788" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D1788" s="4"/>
     </row>
@@ -22191,7 +22206,7 @@
         <v>15787</v>
       </c>
       <c r="C1789" s="6" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D1789" s="7"/>
     </row>
@@ -22200,7 +22215,7 @@
         <v>15788</v>
       </c>
       <c r="C1790" s="3" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="D1790" s="4"/>
     </row>
@@ -22209,7 +22224,7 @@
         <v>15789</v>
       </c>
       <c r="C1791" s="6" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="D1791" s="7"/>
     </row>
@@ -22218,7 +22233,7 @@
         <v>15790</v>
       </c>
       <c r="C1792" s="3" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="D1792" s="4"/>
     </row>
@@ -22227,7 +22242,7 @@
         <v>15791</v>
       </c>
       <c r="C1793" s="6" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="D1793" s="7"/>
     </row>
@@ -22236,7 +22251,7 @@
         <v>15792</v>
       </c>
       <c r="C1794" s="3" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D1794" s="4"/>
     </row>
@@ -22245,7 +22260,7 @@
         <v>15793</v>
       </c>
       <c r="C1795" s="6" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="D1795" s="7"/>
     </row>
@@ -22254,7 +22269,7 @@
         <v>15794</v>
       </c>
       <c r="C1796" s="3" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="D1796" s="4"/>
     </row>
@@ -22263,7 +22278,7 @@
         <v>15795</v>
       </c>
       <c r="C1797" s="6" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="D1797" s="7"/>
     </row>
@@ -22272,7 +22287,7 @@
         <v>15796</v>
       </c>
       <c r="C1798" s="3" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="D1798" s="4"/>
     </row>
@@ -22281,7 +22296,7 @@
         <v>15797</v>
       </c>
       <c r="C1799" s="6" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="D1799" s="7"/>
     </row>
@@ -22290,7 +22305,7 @@
         <v>15798</v>
       </c>
       <c r="C1800" s="3" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="D1800" s="4"/>
     </row>
@@ -22299,7 +22314,7 @@
         <v>15799</v>
       </c>
       <c r="C1801" s="6" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="D1801" s="7"/>
     </row>
@@ -22308,7 +22323,7 @@
         <v>15800</v>
       </c>
       <c r="C1802" s="3" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="D1802" s="4"/>
     </row>
@@ -22317,7 +22332,7 @@
         <v>15801</v>
       </c>
       <c r="C1803" s="6" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="D1803" s="7"/>
     </row>
@@ -22326,7 +22341,7 @@
         <v>15802</v>
       </c>
       <c r="C1804" s="3" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="D1804" s="4"/>
     </row>
@@ -22335,7 +22350,7 @@
         <v>15803</v>
       </c>
       <c r="C1805" s="6" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="D1805" s="7"/>
     </row>
@@ -22344,7 +22359,7 @@
         <v>15804</v>
       </c>
       <c r="C1806" s="3" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="D1806" s="4"/>
     </row>
@@ -22353,7 +22368,7 @@
         <v>15805</v>
       </c>
       <c r="C1807" s="6" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="D1807" s="7"/>
     </row>
@@ -22362,7 +22377,7 @@
         <v>15806</v>
       </c>
       <c r="C1808" s="3" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="D1808" s="4"/>
     </row>
@@ -22371,7 +22386,7 @@
         <v>15807</v>
       </c>
       <c r="C1809" s="6" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="D1809" s="7"/>
     </row>
@@ -22380,7 +22395,7 @@
         <v>15808</v>
       </c>
       <c r="C1810" s="3" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="D1810" s="4"/>
     </row>
@@ -22389,7 +22404,7 @@
         <v>15809</v>
       </c>
       <c r="C1811" s="6" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="D1811" s="7"/>
     </row>
@@ -22398,7 +22413,7 @@
         <v>15810</v>
       </c>
       <c r="C1812" s="3" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="D1812" s="4"/>
     </row>
@@ -22407,7 +22422,7 @@
         <v>15811</v>
       </c>
       <c r="C1813" s="6" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="D1813" s="7"/>
     </row>
@@ -22416,7 +22431,7 @@
         <v>15812</v>
       </c>
       <c r="C1814" s="3" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="D1814" s="4"/>
     </row>
@@ -22425,7 +22440,7 @@
         <v>15813</v>
       </c>
       <c r="C1815" s="6" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="D1815" s="7"/>
     </row>
@@ -22434,7 +22449,7 @@
         <v>15814</v>
       </c>
       <c r="C1816" s="3" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="D1816" s="4"/>
     </row>
@@ -22443,7 +22458,7 @@
         <v>15815</v>
       </c>
       <c r="C1817" s="6" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="D1817" s="7"/>
     </row>
@@ -22452,7 +22467,7 @@
         <v>15816</v>
       </c>
       <c r="C1818" s="3" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="D1818" s="4"/>
     </row>
@@ -22461,7 +22476,7 @@
         <v>15817</v>
       </c>
       <c r="C1819" s="6" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="D1819" s="7"/>
     </row>
@@ -22470,7 +22485,7 @@
         <v>15818</v>
       </c>
       <c r="C1820" s="3" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="D1820" s="4"/>
     </row>
@@ -22479,7 +22494,7 @@
         <v>15819</v>
       </c>
       <c r="C1821" s="6" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D1821" s="7"/>
     </row>
@@ -22488,7 +22503,7 @@
         <v>15820</v>
       </c>
       <c r="C1822" s="3" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="D1822" s="4"/>
     </row>
@@ -22497,7 +22512,7 @@
         <v>15821</v>
       </c>
       <c r="C1823" s="6" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="D1823" s="7"/>
     </row>
@@ -22506,7 +22521,7 @@
         <v>15822</v>
       </c>
       <c r="C1824" s="3" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="D1824" s="4"/>
     </row>
@@ -22515,7 +22530,7 @@
         <v>15823</v>
       </c>
       <c r="C1825" s="6" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="D1825" s="7"/>
     </row>
@@ -22524,7 +22539,7 @@
         <v>15824</v>
       </c>
       <c r="C1826" s="3" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="D1826" s="4"/>
     </row>
@@ -22533,7 +22548,7 @@
         <v>15825</v>
       </c>
       <c r="C1827" s="6" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="D1827" s="7"/>
     </row>
@@ -22542,7 +22557,7 @@
         <v>15826</v>
       </c>
       <c r="C1828" s="3" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="D1828" s="4"/>
     </row>
@@ -22551,7 +22566,7 @@
         <v>15827</v>
       </c>
       <c r="C1829" s="6" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="D1829" s="7"/>
     </row>
@@ -22560,7 +22575,7 @@
         <v>15828</v>
       </c>
       <c r="C1830" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D1830" s="4"/>
     </row>
@@ -22569,7 +22584,7 @@
         <v>15829</v>
       </c>
       <c r="C1831" s="6" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="D1831" s="7"/>
     </row>
@@ -22578,7 +22593,7 @@
         <v>15830</v>
       </c>
       <c r="C1832" s="3" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="D1832" s="4"/>
     </row>
@@ -22587,7 +22602,7 @@
         <v>15831</v>
       </c>
       <c r="C1833" s="6" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="D1833" s="7"/>
     </row>
@@ -22596,7 +22611,7 @@
         <v>15832</v>
       </c>
       <c r="C1834" s="3" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="D1834" s="4"/>
     </row>
@@ -22605,7 +22620,7 @@
         <v>15833</v>
       </c>
       <c r="C1835" s="6" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="D1835" s="7"/>
     </row>
@@ -22614,7 +22629,7 @@
         <v>15834</v>
       </c>
       <c r="C1836" s="3" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="D1836" s="4"/>
     </row>
@@ -22623,7 +22638,7 @@
         <v>15835</v>
       </c>
       <c r="C1837" s="6" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="D1837" s="7"/>
     </row>
@@ -22632,7 +22647,7 @@
         <v>15836</v>
       </c>
       <c r="C1838" s="3" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="D1838" s="4"/>
     </row>
@@ -22641,7 +22656,7 @@
         <v>15837</v>
       </c>
       <c r="C1839" s="6" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="D1839" s="7"/>
     </row>
@@ -22650,7 +22665,7 @@
         <v>15838</v>
       </c>
       <c r="C1840" s="3" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="D1840" s="4"/>
     </row>
@@ -22659,7 +22674,7 @@
         <v>15839</v>
       </c>
       <c r="C1841" s="6" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="D1841" s="7"/>
     </row>
@@ -22668,7 +22683,7 @@
         <v>15840</v>
       </c>
       <c r="C1842" s="3" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="D1842" s="4"/>
     </row>
@@ -22677,7 +22692,7 @@
         <v>15841</v>
       </c>
       <c r="C1843" s="6" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="D1843" s="7"/>
     </row>
@@ -22686,7 +22701,7 @@
         <v>15842</v>
       </c>
       <c r="C1844" s="3" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="D1844" s="4"/>
     </row>
@@ -22695,7 +22710,7 @@
         <v>15843</v>
       </c>
       <c r="C1845" s="6" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="D1845" s="7"/>
     </row>
@@ -22704,7 +22719,7 @@
         <v>15844</v>
       </c>
       <c r="C1846" s="3" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="D1846" s="4"/>
     </row>
@@ -22713,7 +22728,7 @@
         <v>15845</v>
       </c>
       <c r="C1847" s="6" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="D1847" s="7"/>
     </row>
@@ -22722,7 +22737,7 @@
         <v>15846</v>
       </c>
       <c r="C1848" s="3" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="D1848" s="4"/>
     </row>
@@ -22731,7 +22746,7 @@
         <v>15847</v>
       </c>
       <c r="C1849" s="6" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="D1849" s="7"/>
     </row>
@@ -22740,7 +22755,7 @@
         <v>15848</v>
       </c>
       <c r="C1850" s="3" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="D1850" s="4"/>
     </row>
@@ -22749,7 +22764,7 @@
         <v>15849</v>
       </c>
       <c r="C1851" s="6" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="D1851" s="7"/>
     </row>
@@ -22758,7 +22773,7 @@
         <v>15850</v>
       </c>
       <c r="C1852" s="3" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="D1852" s="4"/>
     </row>
@@ -22767,7 +22782,7 @@
         <v>15851</v>
       </c>
       <c r="C1853" s="6" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="D1853" s="7"/>
     </row>
@@ -22776,7 +22791,7 @@
         <v>15852</v>
       </c>
       <c r="C1854" s="3" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D1854" s="4"/>
     </row>
@@ -22785,7 +22800,7 @@
         <v>15853</v>
       </c>
       <c r="C1855" s="6" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="D1855" s="7"/>
     </row>
@@ -22794,7 +22809,7 @@
         <v>15854</v>
       </c>
       <c r="C1856" s="3" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="D1856" s="4"/>
     </row>
@@ -22803,7 +22818,7 @@
         <v>15855</v>
       </c>
       <c r="C1857" s="6" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D1857" s="7"/>
     </row>
@@ -22812,7 +22827,7 @@
         <v>15856</v>
       </c>
       <c r="C1858" s="3" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="D1858" s="4"/>
     </row>
@@ -22821,7 +22836,7 @@
         <v>15857</v>
       </c>
       <c r="C1859" s="6" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="D1859" s="7"/>
     </row>
@@ -22830,7 +22845,7 @@
         <v>15858</v>
       </c>
       <c r="C1860" s="3" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D1860" s="4"/>
     </row>
@@ -22839,7 +22854,7 @@
         <v>15859</v>
       </c>
       <c r="C1861" s="6" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="D1861" s="7"/>
     </row>
@@ -22848,7 +22863,7 @@
         <v>15860</v>
       </c>
       <c r="C1862" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D1862" s="4"/>
     </row>
@@ -22857,7 +22872,7 @@
         <v>15861</v>
       </c>
       <c r="C1863" s="6" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="D1863" s="7"/>
     </row>
@@ -22866,7 +22881,7 @@
         <v>15862</v>
       </c>
       <c r="C1864" s="3" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D1864" s="4"/>
     </row>
@@ -22875,7 +22890,7 @@
         <v>15863</v>
       </c>
       <c r="C1865" s="6" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="D1865" s="7"/>
     </row>
@@ -22884,7 +22899,7 @@
         <v>15864</v>
       </c>
       <c r="C1866" s="3" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="D1866" s="4"/>
     </row>
@@ -22893,7 +22908,7 @@
         <v>15865</v>
       </c>
       <c r="C1867" s="6" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="D1867" s="7"/>
     </row>
@@ -22902,7 +22917,7 @@
         <v>15866</v>
       </c>
       <c r="C1868" s="3" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="D1868" s="4"/>
     </row>
@@ -22911,7 +22926,7 @@
         <v>15867</v>
       </c>
       <c r="C1869" s="6" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="D1869" s="7"/>
     </row>
@@ -22920,7 +22935,7 @@
         <v>15868</v>
       </c>
       <c r="C1870" s="3" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="D1870" s="4"/>
     </row>
@@ -22929,7 +22944,7 @@
         <v>15869</v>
       </c>
       <c r="C1871" s="6" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="D1871" s="7"/>
     </row>
@@ -22938,7 +22953,7 @@
         <v>15870</v>
       </c>
       <c r="C1872" s="3" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="D1872" s="4"/>
     </row>
@@ -22947,7 +22962,7 @@
         <v>15871</v>
       </c>
       <c r="C1873" s="6" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="D1873" s="7"/>
     </row>
@@ -22956,7 +22971,7 @@
         <v>15872</v>
       </c>
       <c r="C1874" s="3" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="D1874" s="4"/>
     </row>
@@ -22965,7 +22980,7 @@
         <v>15873</v>
       </c>
       <c r="C1875" s="6" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="D1875" s="7"/>
     </row>
@@ -22974,7 +22989,7 @@
         <v>15874</v>
       </c>
       <c r="C1876" s="3" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="D1876" s="4"/>
     </row>
@@ -22983,7 +22998,7 @@
         <v>15875</v>
       </c>
       <c r="C1877" s="6" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="D1877" s="7"/>
     </row>
@@ -22992,7 +23007,7 @@
         <v>15876</v>
       </c>
       <c r="C1878" s="3" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="D1878" s="4"/>
     </row>
@@ -23001,7 +23016,7 @@
         <v>15877</v>
       </c>
       <c r="C1879" s="6" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="D1879" s="7"/>
     </row>
@@ -23010,7 +23025,7 @@
         <v>15878</v>
       </c>
       <c r="C1880" s="3" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="D1880" s="4"/>
     </row>
@@ -23019,7 +23034,7 @@
         <v>15879</v>
       </c>
       <c r="C1881" s="6" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="D1881" s="7"/>
     </row>
@@ -23028,7 +23043,7 @@
         <v>15880</v>
       </c>
       <c r="C1882" s="3" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="D1882" s="4"/>
     </row>
@@ -23037,7 +23052,7 @@
         <v>15881</v>
       </c>
       <c r="C1883" s="6" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="D1883" s="7"/>
     </row>
@@ -23046,7 +23061,7 @@
         <v>15882</v>
       </c>
       <c r="C1884" s="3" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="D1884" s="4"/>
     </row>
@@ -23055,7 +23070,7 @@
         <v>15883</v>
       </c>
       <c r="C1885" s="6" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="D1885" s="7"/>
     </row>
@@ -23064,7 +23079,7 @@
         <v>15884</v>
       </c>
       <c r="C1886" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D1886" s="4"/>
     </row>
@@ -23073,7 +23088,7 @@
         <v>15885</v>
       </c>
       <c r="C1887" s="6" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="D1887" s="7"/>
     </row>
@@ -23082,7 +23097,7 @@
         <v>15886</v>
       </c>
       <c r="C1888" s="3" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="D1888" s="4"/>
     </row>
@@ -23091,7 +23106,7 @@
         <v>15887</v>
       </c>
       <c r="C1889" s="6" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="D1889" s="7"/>
     </row>
@@ -23100,7 +23115,7 @@
         <v>15888</v>
       </c>
       <c r="C1890" s="3" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="D1890" s="4"/>
     </row>
@@ -23109,7 +23124,7 @@
         <v>15889</v>
       </c>
       <c r="C1891" s="6" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="D1891" s="7"/>
     </row>
@@ -23118,7 +23133,7 @@
         <v>15890</v>
       </c>
       <c r="C1892" s="3" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="D1892" s="4"/>
     </row>
@@ -23127,7 +23142,7 @@
         <v>15891</v>
       </c>
       <c r="C1893" s="6" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="D1893" s="7"/>
     </row>
@@ -23136,7 +23151,7 @@
         <v>15892</v>
       </c>
       <c r="C1894" s="3" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="D1894" s="4"/>
     </row>
@@ -23145,7 +23160,7 @@
         <v>15893</v>
       </c>
       <c r="C1895" s="6" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="D1895" s="7"/>
     </row>
@@ -23154,7 +23169,7 @@
         <v>15894</v>
       </c>
       <c r="C1896" s="3" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="D1896" s="4"/>
     </row>
@@ -23163,7 +23178,7 @@
         <v>15895</v>
       </c>
       <c r="C1897" s="6" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="D1897" s="7"/>
     </row>
@@ -23172,7 +23187,7 @@
         <v>15896</v>
       </c>
       <c r="C1898" s="3" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="D1898" s="4"/>
     </row>
@@ -23181,7 +23196,7 @@
         <v>15897</v>
       </c>
       <c r="C1899" s="6" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D1899" s="7"/>
     </row>
@@ -23190,7 +23205,7 @@
         <v>15898</v>
       </c>
       <c r="C1900" s="3" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="D1900" s="4"/>
     </row>
@@ -23199,7 +23214,7 @@
         <v>15899</v>
       </c>
       <c r="C1901" s="6" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="D1901" s="7"/>
     </row>
@@ -23208,7 +23223,7 @@
         <v>15900</v>
       </c>
       <c r="C1902" s="3" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="D1902" s="4"/>
     </row>
@@ -23217,7 +23232,7 @@
         <v>15901</v>
       </c>
       <c r="C1903" s="6" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="D1903" s="7"/>
     </row>
@@ -23226,7 +23241,7 @@
         <v>15902</v>
       </c>
       <c r="C1904" s="3" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="D1904" s="4"/>
     </row>
@@ -23235,7 +23250,7 @@
         <v>15903</v>
       </c>
       <c r="C1905" s="6" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="D1905" s="7"/>
     </row>
@@ -23244,7 +23259,7 @@
         <v>15904</v>
       </c>
       <c r="C1906" s="3" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="D1906" s="4"/>
     </row>
@@ -23253,7 +23268,7 @@
         <v>15905</v>
       </c>
       <c r="C1907" s="6" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="D1907" s="7"/>
     </row>
@@ -23262,7 +23277,7 @@
         <v>15906</v>
       </c>
       <c r="C1908" s="3" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="D1908" s="4"/>
     </row>
@@ -23271,7 +23286,7 @@
         <v>15907</v>
       </c>
       <c r="C1909" s="6" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="D1909" s="7"/>
     </row>
@@ -23280,7 +23295,7 @@
         <v>15908</v>
       </c>
       <c r="C1910" s="3" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="D1910" s="4"/>
     </row>
@@ -23289,7 +23304,7 @@
         <v>15909</v>
       </c>
       <c r="C1911" s="6" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="D1911" s="7"/>
     </row>
@@ -23298,7 +23313,7 @@
         <v>15910</v>
       </c>
       <c r="C1912" s="3" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="D1912" s="4"/>
     </row>
@@ -23307,7 +23322,7 @@
         <v>15911</v>
       </c>
       <c r="C1913" s="6" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="D1913" s="7"/>
     </row>
@@ -23316,7 +23331,7 @@
         <v>15912</v>
       </c>
       <c r="C1914" s="3" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="D1914" s="4"/>
     </row>
@@ -23325,7 +23340,7 @@
         <v>15913</v>
       </c>
       <c r="C1915" s="6" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="D1915" s="7"/>
     </row>
@@ -23334,7 +23349,7 @@
         <v>15914</v>
       </c>
       <c r="C1916" s="3" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D1916" s="4"/>
     </row>
@@ -23343,7 +23358,7 @@
         <v>15915</v>
       </c>
       <c r="C1917" s="6" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="D1917" s="7"/>
     </row>
@@ -23352,7 +23367,7 @@
         <v>15916</v>
       </c>
       <c r="C1918" s="3" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="D1918" s="4"/>
     </row>
@@ -23361,7 +23376,7 @@
         <v>15917</v>
       </c>
       <c r="C1919" s="6" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="D1919" s="7"/>
     </row>
@@ -23370,7 +23385,7 @@
         <v>15918</v>
       </c>
       <c r="C1920" s="3" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="D1920" s="4"/>
     </row>
@@ -23379,7 +23394,7 @@
         <v>15919</v>
       </c>
       <c r="C1921" s="6" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="D1921" s="7"/>
     </row>
@@ -23388,7 +23403,7 @@
         <v>15920</v>
       </c>
       <c r="C1922" s="3" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="D1922" s="4"/>
     </row>
@@ -23397,7 +23412,7 @@
         <v>15921</v>
       </c>
       <c r="C1923" s="6" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="D1923" s="7"/>
     </row>
@@ -23406,7 +23421,7 @@
         <v>15922</v>
       </c>
       <c r="C1924" s="3" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="D1924" s="4"/>
     </row>
@@ -23415,7 +23430,7 @@
         <v>15923</v>
       </c>
       <c r="C1925" s="6" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="D1925" s="7"/>
     </row>
@@ -23424,7 +23439,7 @@
         <v>15924</v>
       </c>
       <c r="C1926" s="3" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="D1926" s="4"/>
     </row>
@@ -23433,7 +23448,7 @@
         <v>15925</v>
       </c>
       <c r="C1927" s="6" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="D1927" s="7"/>
     </row>
@@ -23442,7 +23457,7 @@
         <v>15926</v>
       </c>
       <c r="C1928" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D1928" s="4"/>
     </row>
@@ -23451,7 +23466,7 @@
         <v>15927</v>
       </c>
       <c r="C1929" s="6" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="D1929" s="7"/>
     </row>
@@ -23460,7 +23475,7 @@
         <v>15928</v>
       </c>
       <c r="C1930" s="3" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="D1930" s="4"/>
     </row>
@@ -23469,7 +23484,7 @@
         <v>15929</v>
       </c>
       <c r="C1931" s="6" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="D1931" s="7"/>
     </row>
@@ -23478,7 +23493,7 @@
         <v>15930</v>
       </c>
       <c r="C1932" s="3" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="D1932" s="4"/>
     </row>
@@ -23487,7 +23502,7 @@
         <v>15931</v>
       </c>
       <c r="C1933" s="6" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="D1933" s="7"/>
     </row>
@@ -23496,7 +23511,7 @@
         <v>15932</v>
       </c>
       <c r="C1934" s="3" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="D1934" s="4"/>
     </row>
@@ -23505,7 +23520,7 @@
         <v>15933</v>
       </c>
       <c r="C1935" s="6" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="D1935" s="7"/>
     </row>
@@ -23514,7 +23529,7 @@
         <v>15934</v>
       </c>
       <c r="C1936" s="3" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="D1936" s="4"/>
     </row>
@@ -23523,7 +23538,7 @@
         <v>15935</v>
       </c>
       <c r="C1937" s="6" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="D1937" s="7"/>
     </row>
@@ -23532,7 +23547,7 @@
         <v>15936</v>
       </c>
       <c r="C1938" s="3" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="D1938" s="4"/>
     </row>
@@ -23541,7 +23556,7 @@
         <v>15937</v>
       </c>
       <c r="C1939" s="6" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="D1939" s="7"/>
     </row>
@@ -23550,7 +23565,7 @@
         <v>15938</v>
       </c>
       <c r="C1940" s="3" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="D1940" s="4"/>
     </row>
@@ -23559,7 +23574,7 @@
         <v>15939</v>
       </c>
       <c r="C1941" s="6" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="D1941" s="7"/>
     </row>
@@ -23568,7 +23583,7 @@
         <v>15940</v>
       </c>
       <c r="C1942" s="3" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="D1942" s="4"/>
     </row>
@@ -23577,7 +23592,7 @@
         <v>15941</v>
       </c>
       <c r="C1943" s="6" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="D1943" s="7"/>
     </row>
@@ -23586,7 +23601,7 @@
         <v>15942</v>
       </c>
       <c r="C1944" s="3" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D1944" s="4"/>
     </row>
@@ -23595,7 +23610,7 @@
         <v>15943</v>
       </c>
       <c r="C1945" s="6" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="D1945" s="7"/>
     </row>
@@ -23604,7 +23619,7 @@
         <v>15944</v>
       </c>
       <c r="C1946" s="3" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="D1946" s="4"/>
     </row>
@@ -23613,7 +23628,7 @@
         <v>15945</v>
       </c>
       <c r="C1947" s="6" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="D1947" s="7"/>
     </row>
@@ -23622,7 +23637,7 @@
         <v>15946</v>
       </c>
       <c r="C1948" s="3" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="D1948" s="4"/>
     </row>
@@ -23631,7 +23646,7 @@
         <v>15947</v>
       </c>
       <c r="C1949" s="6" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="D1949" s="7"/>
     </row>
@@ -23640,7 +23655,7 @@
         <v>15948</v>
       </c>
       <c r="C1950" s="3" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="D1950" s="4"/>
     </row>
@@ -23649,7 +23664,7 @@
         <v>15949</v>
       </c>
       <c r="C1951" s="6" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="D1951" s="7"/>
     </row>
@@ -23658,7 +23673,7 @@
         <v>15950</v>
       </c>
       <c r="C1952" s="3" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="D1952" s="4"/>
     </row>
@@ -23667,7 +23682,7 @@
         <v>15951</v>
       </c>
       <c r="C1953" s="6" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="D1953" s="7"/>
     </row>
@@ -23676,7 +23691,7 @@
         <v>15952</v>
       </c>
       <c r="C1954" s="3" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="D1954" s="4"/>
     </row>
@@ -23685,7 +23700,7 @@
         <v>15953</v>
       </c>
       <c r="C1955" s="6" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="D1955" s="7"/>
     </row>
@@ -23694,7 +23709,7 @@
         <v>15954</v>
       </c>
       <c r="C1956" s="3" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="D1956" s="4"/>
     </row>
@@ -23703,7 +23718,7 @@
         <v>15955</v>
       </c>
       <c r="C1957" s="6" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="D1957" s="7"/>
     </row>
@@ -23712,7 +23727,7 @@
         <v>15956</v>
       </c>
       <c r="C1958" s="3" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="D1958" s="4"/>
     </row>
@@ -23721,7 +23736,7 @@
         <v>15957</v>
       </c>
       <c r="C1959" s="6" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="D1959" s="7"/>
     </row>
@@ -23730,7 +23745,7 @@
         <v>15958</v>
       </c>
       <c r="C1960" s="3" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="D1960" s="4"/>
     </row>
@@ -23739,7 +23754,7 @@
         <v>15959</v>
       </c>
       <c r="C1961" s="6" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="D1961" s="7"/>
     </row>
@@ -23748,7 +23763,7 @@
         <v>15960</v>
       </c>
       <c r="C1962" s="3" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="D1962" s="4"/>
     </row>
@@ -23757,7 +23772,7 @@
         <v>15961</v>
       </c>
       <c r="C1963" s="6" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="D1963" s="7"/>
     </row>
@@ -23766,7 +23781,7 @@
         <v>15962</v>
       </c>
       <c r="C1964" s="3" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="D1964" s="4"/>
     </row>
@@ -23775,7 +23790,7 @@
         <v>15963</v>
       </c>
       <c r="C1965" s="6" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="D1965" s="7"/>
     </row>
@@ -23784,7 +23799,7 @@
         <v>15964</v>
       </c>
       <c r="C1966" s="3" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="D1966" s="4"/>
     </row>
@@ -23793,7 +23808,7 @@
         <v>15965</v>
       </c>
       <c r="C1967" s="6" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="D1967" s="7"/>
     </row>
@@ -23802,7 +23817,7 @@
         <v>15966</v>
       </c>
       <c r="C1968" s="3" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="D1968" s="4"/>
     </row>
@@ -23811,7 +23826,7 @@
         <v>15967</v>
       </c>
       <c r="C1969" s="6" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="D1969" s="7"/>
     </row>
@@ -23820,7 +23835,7 @@
         <v>15968</v>
       </c>
       <c r="C1970" s="3" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="D1970" s="4"/>
     </row>
@@ -23829,7 +23844,7 @@
         <v>15969</v>
       </c>
       <c r="C1971" s="6" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="D1971" s="7"/>
     </row>
@@ -23838,7 +23853,7 @@
         <v>15970</v>
       </c>
       <c r="C1972" s="3" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="D1972" s="4"/>
     </row>
@@ -23847,7 +23862,7 @@
         <v>15971</v>
       </c>
       <c r="C1973" s="6" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="D1973" s="7"/>
     </row>
@@ -23856,7 +23871,7 @@
         <v>15972</v>
       </c>
       <c r="C1974" s="3" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="D1974" s="4"/>
     </row>
@@ -23865,7 +23880,7 @@
         <v>15973</v>
       </c>
       <c r="C1975" s="6" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="D1975" s="7"/>
     </row>
@@ -23874,7 +23889,7 @@
         <v>15974</v>
       </c>
       <c r="C1976" s="3" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="D1976" s="4"/>
     </row>
@@ -23883,7 +23898,7 @@
         <v>15975</v>
       </c>
       <c r="C1977" s="6" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="D1977" s="7"/>
     </row>
@@ -23892,7 +23907,7 @@
         <v>15976</v>
       </c>
       <c r="C1978" s="3" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="D1978" s="4"/>
     </row>
@@ -23901,7 +23916,7 @@
         <v>15977</v>
       </c>
       <c r="C1979" s="6" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="D1979" s="7"/>
     </row>
@@ -23910,7 +23925,7 @@
         <v>15978</v>
       </c>
       <c r="C1980" s="3" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="D1980" s="4"/>
     </row>
@@ -23919,7 +23934,7 @@
         <v>15979</v>
       </c>
       <c r="C1981" s="6" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="D1981" s="7"/>
     </row>
@@ -23928,7 +23943,7 @@
         <v>15980</v>
       </c>
       <c r="C1982" s="3" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="D1982" s="4"/>
     </row>
@@ -23937,7 +23952,7 @@
         <v>15981</v>
       </c>
       <c r="C1983" s="6" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="D1983" s="7"/>
     </row>
@@ -23946,7 +23961,7 @@
         <v>15982</v>
       </c>
       <c r="C1984" s="3" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="D1984" s="4"/>
     </row>
@@ -23955,7 +23970,7 @@
         <v>15983</v>
       </c>
       <c r="C1985" s="6" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="D1985" s="7"/>
     </row>
@@ -23964,7 +23979,7 @@
         <v>15984</v>
       </c>
       <c r="C1986" s="3" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D1986" s="4"/>
     </row>
@@ -23973,7 +23988,7 @@
         <v>15985</v>
       </c>
       <c r="C1987" s="6" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="D1987" s="7"/>
     </row>
@@ -23982,7 +23997,7 @@
         <v>15986</v>
       </c>
       <c r="C1988" s="3" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="D1988" s="4"/>
     </row>
@@ -23991,7 +24006,7 @@
         <v>15987</v>
       </c>
       <c r="C1989" s="6" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="D1989" s="7"/>
     </row>
@@ -24000,7 +24015,7 @@
         <v>15988</v>
       </c>
       <c r="C1990" s="3" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="D1990" s="4"/>
     </row>
@@ -24009,7 +24024,7 @@
         <v>15989</v>
       </c>
       <c r="C1991" s="6" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="D1991" s="7"/>
     </row>
@@ -24018,7 +24033,7 @@
         <v>15990</v>
       </c>
       <c r="C1992" s="3" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="D1992" s="4"/>
     </row>
@@ -24027,7 +24042,7 @@
         <v>15991</v>
       </c>
       <c r="C1993" s="6" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="D1993" s="7"/>
     </row>
@@ -24036,7 +24051,7 @@
         <v>15992</v>
       </c>
       <c r="C1994" s="3" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="D1994" s="4"/>
     </row>
@@ -24045,7 +24060,7 @@
         <v>15993</v>
       </c>
       <c r="C1995" s="6" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="D1995" s="7"/>
     </row>
@@ -24054,7 +24069,7 @@
         <v>15994</v>
       </c>
       <c r="C1996" s="3" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="D1996" s="4"/>
     </row>
@@ -24063,7 +24078,7 @@
         <v>15995</v>
       </c>
       <c r="C1997" s="6" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="D1997" s="7"/>
     </row>
@@ -24072,7 +24087,7 @@
         <v>15996</v>
       </c>
       <c r="C1998" s="3" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="D1998" s="4"/>
     </row>
@@ -24081,7 +24096,7 @@
         <v>15997</v>
       </c>
       <c r="C1999" s="6" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="D1999" s="7"/>
     </row>
@@ -24090,7 +24105,7 @@
         <v>15998</v>
       </c>
       <c r="C2000" s="3" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="D2000" s="4"/>
     </row>
@@ -24099,7 +24114,7 @@
         <v>15999</v>
       </c>
       <c r="C2001" s="6" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="D2001" s="7"/>
     </row>
